--- a/Tendencias DI/Cross DI.xlsx
+++ b/Tendencias DI/Cross DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tendencias DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAD01C9-CFEF-49E5-A40B-46A33709D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB71888-187D-4F4E-B395-3ED7B1B087E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{671B8736-8951-494D-8DDB-F6617769346A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6030" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6036" uniqueCount="1192">
   <si>
     <t>Variable</t>
   </si>
@@ -3607,6 +3607,9 @@
   </si>
   <si>
     <t>Otros</t>
+  </si>
+  <si>
+    <t>Centro de Estudios y Análisis del Delito (CEAD) de la Subsecretaría de Prevención del Delito</t>
   </si>
 </sst>
 </file>
@@ -3960,11 +3963,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A91DB7-4416-4BA8-ADAC-A3F1D4750D39}">
   <dimension ref="A1:AE1307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AE1307"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B408" sqref="B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -19606,6 +19614,9 @@
       <c r="G535" t="s">
         <v>563</v>
       </c>
+      <c r="I535" t="s">
+        <v>1191</v>
+      </c>
       <c r="W535">
         <v>4</v>
       </c>
@@ -19641,6 +19652,9 @@
       <c r="G536" t="s">
         <v>563</v>
       </c>
+      <c r="I536" t="s">
+        <v>1191</v>
+      </c>
       <c r="W536">
         <v>53</v>
       </c>
@@ -19676,6 +19690,9 @@
       <c r="G537" t="s">
         <v>563</v>
       </c>
+      <c r="I537" t="s">
+        <v>1191</v>
+      </c>
       <c r="W537">
         <v>27</v>
       </c>
@@ -19711,6 +19728,9 @@
       <c r="G538" t="s">
         <v>563</v>
       </c>
+      <c r="I538" t="s">
+        <v>1191</v>
+      </c>
       <c r="W538">
         <v>75</v>
       </c>
@@ -19746,6 +19766,9 @@
       <c r="G539" t="s">
         <v>563</v>
       </c>
+      <c r="I539" t="s">
+        <v>1191</v>
+      </c>
       <c r="W539">
         <v>2632</v>
       </c>
@@ -19780,6 +19803,9 @@
       </c>
       <c r="G540" t="s">
         <v>563</v>
+      </c>
+      <c r="I540" t="s">
+        <v>1191</v>
       </c>
       <c r="W540">
         <v>9</v>

--- a/Tendencias DI/Cross DI.xlsx
+++ b/Tendencias DI/Cross DI.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tendencias DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tendencias DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9733285-9BF6-4947-A941-50F121D53A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803547F-04FC-42E6-A866-64B5996D8318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{494430AA-323E-48A6-AB65-3B39C071EE0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{494430AA-323E-48A6-AB65-3B39C071EE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AF$1532</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AF$1662</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11787" uniqueCount="3280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12912" uniqueCount="3524">
   <si>
     <t>Variable</t>
   </si>
@@ -9893,6 +9894,738 @@
   </si>
   <si>
     <t>Patrones o empleadores</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungría</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>No bien especificado</t>
+  </si>
+  <si>
+    <t>No sabe o no responde</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Otro país de Asia</t>
+  </si>
+  <si>
+    <t>Otro país de Europa</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Rumanía</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>Croacia</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Otro país de Africa</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Tailandia</t>
+  </si>
+  <si>
+    <t>Turquía</t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>Eslovaquia</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>República Checa</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>República Democrática Del Congo</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Alemania</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Argentina</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Australia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Austria</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Bélgica</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Bolivia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Brasil</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Canadá</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en China</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Colombia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Costa Rica</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Cuba</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Ecuador</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en El Salvador</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Eslovenia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en España</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Estados Unidos</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Filipinas</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Francia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Grecia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Guatemala</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Haití</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Holanda</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Honduras</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Hungría</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en India</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Indonesia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Irlanda</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Italia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Japón</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Kenia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Libia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Marruecos</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en México</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en No bien especificado</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en No sabe o no responde</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Noruega</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Otro país de Asia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Otro país de Europa</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Pakistán</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Panamá</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Paraguay</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Perú</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Polonia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Portugal</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Reino Unido</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en República Dominicana</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Rumanía</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Rusia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Serbia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Siria</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Suecia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Suiza</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Uruguay</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Venezuela</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Albania</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Corea del Sur</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Croacia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Israel</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Jordania</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Kirguistán</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Líbano</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Nicaragua</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Otro país de Africa</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Puerto Rico</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Tailandia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Turquía</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Ucrania</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Angola</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Argelia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Dinamarca</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Egipto</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Eslovaquia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Etiopía</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Lituania</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Qatar</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en República Checa</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Finlandia</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Ghana</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Nigeria</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Palestina</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en República Democrática Del Congo</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Sri Lanka</t>
+  </si>
+  <si>
+    <t>Cantidad de extranjeros nacidos en Sudáfrica</t>
+  </si>
+  <si>
+    <t>2011-2017</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron de 1 a 5 hijos nacidos vivos</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron de 11 a 20 hijos nacidos vivos</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron de 6 a 10 hijos nacidos vivos</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no han tenido hijos</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron más de 20 hijos nacidos vivos</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían entre 10 y 15 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían entre 16 y 20 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían entre 21 y 30 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían entre 31 y 40 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían entre 41 y 50 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían entre 51 y 60 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que tuvieron a su primer hijo cuando tenían más de 60 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que en los últimos 3 años no se hicieron el examen papanicolau</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que se hicieron el examen papanicolau durante el último año</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que se hicieron el examen papanicolau hace más de 2 años y hasta 3 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que se hicieron el examen papanicolau hace más de un año y hasta 2 años</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque les da miedo o les disgusta</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque el horario del consultorio no les sirve o no han podido conseguir hora</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque no conocen ese examen</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque no creen necesitarlo</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque no les corresponde</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque no saben dónde hacérselo</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque no sabían que tenían que hacerse ese examen</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque no tienen dinero o tiempo</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que no se han hecho el examen papanicolau porque se les olvida hacérselo</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que nunca han trabajado</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que sí han trabajado alguna vez</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que si les ofrecieran un trabajo no estarían disponibles para comenzar a trabajar</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que si les ofrecieran un trabajo estarían disponibles para comenzar a trabajar ahora mismo</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que si les ofrecieran un trabajo estarían disponibles para comenzar a trabajar en otra época del año</t>
+  </si>
+  <si>
+    <t>Quintil I</t>
+  </si>
+  <si>
+    <t>Quintil II</t>
+  </si>
+  <si>
+    <t>Quintil III</t>
+  </si>
+  <si>
+    <t>Quintil IV</t>
+  </si>
+  <si>
+    <t>Quintil V</t>
+  </si>
+  <si>
+    <t>Decil I</t>
+  </si>
+  <si>
+    <t>Decil II</t>
+  </si>
+  <si>
+    <t>Decil III</t>
+  </si>
+  <si>
+    <t>Decil IV</t>
+  </si>
+  <si>
+    <t>Decil IX</t>
+  </si>
+  <si>
+    <t>Decil V</t>
+  </si>
+  <si>
+    <t>Decil VI</t>
+  </si>
+  <si>
+    <t>Decil VII</t>
+  </si>
+  <si>
+    <t>Decil VIII</t>
+  </si>
+  <si>
+    <t>Decil X</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Quintil I del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Quintil II del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Quintil III del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Quintil IV del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Quintil V del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil I del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil II del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil III del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil IV del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil IX del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil V del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil VI del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil VII del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil VIII del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que se encuentran en el Decil X del ingreso autónomo nacional</t>
+  </si>
+  <si>
+    <t>2006-2017</t>
+  </si>
+  <si>
+    <t>Salud Reproductiva y Sexual</t>
+  </si>
+  <si>
+    <t>Maternidad</t>
+  </si>
+  <si>
+    <t>Papanicolau</t>
+  </si>
+  <si>
+    <t>Madres primerizas</t>
+  </si>
+  <si>
+    <t>Examen papanicolau</t>
+  </si>
+  <si>
+    <t>Disponibilidad para Trabajar</t>
+  </si>
+  <si>
+    <t>Ha Trabajado Alguna Vez</t>
+  </si>
+  <si>
+    <t>Disponibilidad para trabajar</t>
+  </si>
+  <si>
+    <t>Ingreso Autónomo Nacional</t>
+  </si>
+  <si>
+    <t>Quintiles</t>
+  </si>
+  <si>
+    <t>Deciles</t>
+  </si>
+  <si>
+    <t>Hijos nacidos vivos</t>
   </si>
 </sst>
 </file>
@@ -9974,7 +10707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -9989,6 +10722,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10303,10 +11037,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1948D59-6AB8-4F5B-BB1B-6C7C538A772F}">
-  <dimension ref="A1:AF1532"/>
+  <dimension ref="A1:AF1662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A611" sqref="A611"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85021,8 +85757,6436 @@
         <v>41188</v>
       </c>
     </row>
+    <row r="1533" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1533">
+        <v>3196</v>
+      </c>
+      <c r="W1533">
+        <v>2864</v>
+      </c>
+      <c r="X1533">
+        <v>2531</v>
+      </c>
+      <c r="Y1533">
+        <v>2652</v>
+      </c>
+      <c r="Z1533">
+        <v>2772</v>
+      </c>
+      <c r="AA1533">
+        <v>3576</v>
+      </c>
+      <c r="AB1533">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1534">
+        <v>17741</v>
+      </c>
+      <c r="W1534">
+        <v>18241</v>
+      </c>
+      <c r="X1534">
+        <v>18740</v>
+      </c>
+      <c r="Y1534">
+        <v>20114</v>
+      </c>
+      <c r="Z1534">
+        <v>21488</v>
+      </c>
+      <c r="AA1534">
+        <v>21652</v>
+      </c>
+      <c r="AB1534">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>3282</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1535">
+        <v>1161</v>
+      </c>
+      <c r="W1535">
+        <v>1088</v>
+      </c>
+      <c r="X1535">
+        <v>1014</v>
+      </c>
+      <c r="Y1535">
+        <v>1091</v>
+      </c>
+      <c r="Z1535">
+        <v>1168</v>
+      </c>
+      <c r="AA1535">
+        <v>878</v>
+      </c>
+      <c r="AB1535">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1536">
+        <v>199</v>
+      </c>
+      <c r="W1536">
+        <v>152</v>
+      </c>
+      <c r="X1536">
+        <v>104</v>
+      </c>
+      <c r="Y1536">
+        <v>212</v>
+      </c>
+      <c r="Z1536">
+        <v>320</v>
+      </c>
+      <c r="AA1536">
+        <v>160</v>
+      </c>
+      <c r="AB1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1537">
+        <v>442</v>
+      </c>
+      <c r="W1537">
+        <v>227</v>
+      </c>
+      <c r="X1537">
+        <v>12</v>
+      </c>
+      <c r="Y1537">
+        <v>150</v>
+      </c>
+      <c r="Z1537">
+        <v>288</v>
+      </c>
+      <c r="AA1537">
+        <v>323</v>
+      </c>
+      <c r="AB1537">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1538">
+        <v>11250</v>
+      </c>
+      <c r="W1538">
+        <v>16395</v>
+      </c>
+      <c r="X1538">
+        <v>21540</v>
+      </c>
+      <c r="Y1538">
+        <v>29608</v>
+      </c>
+      <c r="Z1538">
+        <v>37676</v>
+      </c>
+      <c r="AA1538">
+        <v>41859</v>
+      </c>
+      <c r="AB1538">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1539">
+        <v>3261</v>
+      </c>
+      <c r="W1539">
+        <v>3416</v>
+      </c>
+      <c r="X1539">
+        <v>3571</v>
+      </c>
+      <c r="Y1539">
+        <v>5967</v>
+      </c>
+      <c r="Z1539">
+        <v>8363</v>
+      </c>
+      <c r="AA1539">
+        <v>6315</v>
+      </c>
+      <c r="AB1539">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1540" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1540">
+        <v>912</v>
+      </c>
+      <c r="W1540">
+        <v>597</v>
+      </c>
+      <c r="X1540">
+        <v>282</v>
+      </c>
+      <c r="Y1540">
+        <v>442</v>
+      </c>
+      <c r="Z1540">
+        <v>601</v>
+      </c>
+      <c r="AA1540">
+        <v>465</v>
+      </c>
+      <c r="AB1540">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1541" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1541">
+        <v>1038</v>
+      </c>
+      <c r="W1541">
+        <v>966</v>
+      </c>
+      <c r="X1541">
+        <v>894</v>
+      </c>
+      <c r="Y1541">
+        <v>1798</v>
+      </c>
+      <c r="Z1541">
+        <v>2702</v>
+      </c>
+      <c r="AA1541">
+        <v>2849</v>
+      </c>
+      <c r="AB1541">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1542" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1542">
+        <v>12717</v>
+      </c>
+      <c r="W1542">
+        <v>23350</v>
+      </c>
+      <c r="X1542">
+        <v>33983</v>
+      </c>
+      <c r="Y1542">
+        <v>36659</v>
+      </c>
+      <c r="Z1542">
+        <v>39334</v>
+      </c>
+      <c r="AA1542">
+        <v>56835</v>
+      </c>
+      <c r="AB1542">
+        <v>74336</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1543">
+        <v>478</v>
+      </c>
+      <c r="W1543">
+        <v>278</v>
+      </c>
+      <c r="X1543">
+        <v>78</v>
+      </c>
+      <c r="Y1543">
+        <v>697</v>
+      </c>
+      <c r="Z1543">
+        <v>1316</v>
+      </c>
+      <c r="AA1543">
+        <v>914</v>
+      </c>
+      <c r="AB1543">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1544" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1544">
+        <v>1137</v>
+      </c>
+      <c r="W1544">
+        <v>1569</v>
+      </c>
+      <c r="X1544">
+        <v>2000</v>
+      </c>
+      <c r="Y1544">
+        <v>2331</v>
+      </c>
+      <c r="Z1544">
+        <v>2662</v>
+      </c>
+      <c r="AA1544">
+        <v>6634</v>
+      </c>
+      <c r="AB1544">
+        <v>10606</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1545" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1545">
+        <v>5897</v>
+      </c>
+      <c r="W1545">
+        <v>8233</v>
+      </c>
+      <c r="X1545">
+        <v>10568</v>
+      </c>
+      <c r="Y1545">
+        <v>14193</v>
+      </c>
+      <c r="Z1545">
+        <v>17817</v>
+      </c>
+      <c r="AA1545">
+        <v>18401</v>
+      </c>
+      <c r="AB1545">
+        <v>18984</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>3293</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1546" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1546">
+        <v>337</v>
+      </c>
+      <c r="W1546">
+        <v>810</v>
+      </c>
+      <c r="X1546">
+        <v>1283</v>
+      </c>
+      <c r="Y1546">
+        <v>774</v>
+      </c>
+      <c r="Z1546">
+        <v>265</v>
+      </c>
+      <c r="AA1546">
+        <v>425</v>
+      </c>
+      <c r="AB1546">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1547" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1547">
+        <v>13</v>
+      </c>
+      <c r="W1547">
+        <v>7</v>
+      </c>
+      <c r="X1547">
+        <v>0</v>
+      </c>
+      <c r="Y1547">
+        <v>0</v>
+      </c>
+      <c r="Z1547">
+        <v>0</v>
+      </c>
+      <c r="AA1547">
+        <v>0</v>
+      </c>
+      <c r="AB1547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1548" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1548">
+        <v>3608</v>
+      </c>
+      <c r="W1548">
+        <v>4452</v>
+      </c>
+      <c r="X1548">
+        <v>5295</v>
+      </c>
+      <c r="Y1548">
+        <v>6112</v>
+      </c>
+      <c r="Z1548">
+        <v>6928</v>
+      </c>
+      <c r="AA1548">
+        <v>8209</v>
+      </c>
+      <c r="AB1548">
+        <v>9490</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1549" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1549">
+        <v>6733</v>
+      </c>
+      <c r="W1549">
+        <v>5503</v>
+      </c>
+      <c r="X1549">
+        <v>4273</v>
+      </c>
+      <c r="Y1549">
+        <v>4290</v>
+      </c>
+      <c r="Z1549">
+        <v>4306</v>
+      </c>
+      <c r="AA1549">
+        <v>3758</v>
+      </c>
+      <c r="AB1549">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1550" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1550">
+        <v>9</v>
+      </c>
+      <c r="W1550">
+        <v>64</v>
+      </c>
+      <c r="X1550">
+        <v>119</v>
+      </c>
+      <c r="Y1550">
+        <v>73</v>
+      </c>
+      <c r="Z1550">
+        <v>27</v>
+      </c>
+      <c r="AA1550">
+        <v>81</v>
+      </c>
+      <c r="AB1550">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1551" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1551">
+        <v>747</v>
+      </c>
+      <c r="W1551">
+        <v>2009</v>
+      </c>
+      <c r="X1551">
+        <v>3271</v>
+      </c>
+      <c r="Y1551">
+        <v>2552</v>
+      </c>
+      <c r="Z1551">
+        <v>1833</v>
+      </c>
+      <c r="AA1551">
+        <v>2530</v>
+      </c>
+      <c r="AB1551">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1552" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1552">
+        <v>226</v>
+      </c>
+      <c r="W1552">
+        <v>167</v>
+      </c>
+      <c r="X1552">
+        <v>107</v>
+      </c>
+      <c r="Y1552">
+        <v>54</v>
+      </c>
+      <c r="Z1552">
+        <v>0</v>
+      </c>
+      <c r="AA1552">
+        <v>0</v>
+      </c>
+      <c r="AB1552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1553" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1553">
+        <v>40</v>
+      </c>
+      <c r="W1553">
+        <v>155</v>
+      </c>
+      <c r="X1553">
+        <v>270</v>
+      </c>
+      <c r="Y1553">
+        <v>187</v>
+      </c>
+      <c r="Z1553">
+        <v>103</v>
+      </c>
+      <c r="AA1553">
+        <v>245</v>
+      </c>
+      <c r="AB1553">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1554" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1554">
+        <v>419</v>
+      </c>
+      <c r="W1554">
+        <v>3134</v>
+      </c>
+      <c r="X1554">
+        <v>5849</v>
+      </c>
+      <c r="Y1554">
+        <v>10657</v>
+      </c>
+      <c r="Z1554">
+        <v>15465</v>
+      </c>
+      <c r="AA1554">
+        <v>42847</v>
+      </c>
+      <c r="AB1554">
+        <v>70229</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1555" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1555">
+        <v>76</v>
+      </c>
+      <c r="W1555">
+        <v>294</v>
+      </c>
+      <c r="X1555">
+        <v>511</v>
+      </c>
+      <c r="Y1555">
+        <v>370</v>
+      </c>
+      <c r="Z1555">
+        <v>229</v>
+      </c>
+      <c r="AA1555">
+        <v>274</v>
+      </c>
+      <c r="AB1555">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1556" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1556">
+        <v>1018</v>
+      </c>
+      <c r="W1556">
+        <v>715</v>
+      </c>
+      <c r="X1556">
+        <v>411</v>
+      </c>
+      <c r="Y1556">
+        <v>206</v>
+      </c>
+      <c r="Z1556">
+        <v>0</v>
+      </c>
+      <c r="AA1556">
+        <v>192</v>
+      </c>
+      <c r="AB1556">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1557" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1557">
+        <v>22</v>
+      </c>
+      <c r="W1557">
+        <v>11</v>
+      </c>
+      <c r="X1557">
+        <v>0</v>
+      </c>
+      <c r="Y1557">
+        <v>25</v>
+      </c>
+      <c r="Z1557">
+        <v>50</v>
+      </c>
+      <c r="AA1557">
+        <v>143</v>
+      </c>
+      <c r="AB1557">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1558" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1558">
+        <v>55</v>
+      </c>
+      <c r="W1558">
+        <v>186</v>
+      </c>
+      <c r="X1558">
+        <v>316</v>
+      </c>
+      <c r="Y1558">
+        <v>331</v>
+      </c>
+      <c r="Z1558">
+        <v>346</v>
+      </c>
+      <c r="AA1558">
+        <v>256</v>
+      </c>
+      <c r="AB1558">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1559" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1559">
+        <v>72</v>
+      </c>
+      <c r="W1559">
+        <v>48</v>
+      </c>
+      <c r="X1559">
+        <v>24</v>
+      </c>
+      <c r="Y1559">
+        <v>12</v>
+      </c>
+      <c r="Z1559">
+        <v>0</v>
+      </c>
+      <c r="AA1559">
+        <v>23</v>
+      </c>
+      <c r="AB1559">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1560">
+        <v>137</v>
+      </c>
+      <c r="W1560">
+        <v>151</v>
+      </c>
+      <c r="X1560">
+        <v>165</v>
+      </c>
+      <c r="Y1560">
+        <v>83</v>
+      </c>
+      <c r="Z1560">
+        <v>0</v>
+      </c>
+      <c r="AA1560">
+        <v>0</v>
+      </c>
+      <c r="AB1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1561">
+        <v>2321</v>
+      </c>
+      <c r="W1561">
+        <v>2676</v>
+      </c>
+      <c r="X1561">
+        <v>3031</v>
+      </c>
+      <c r="Y1561">
+        <v>3462</v>
+      </c>
+      <c r="Z1561">
+        <v>3892</v>
+      </c>
+      <c r="AA1561">
+        <v>4145</v>
+      </c>
+      <c r="AB1561">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1562">
+        <v>284</v>
+      </c>
+      <c r="W1562">
+        <v>185</v>
+      </c>
+      <c r="X1562">
+        <v>86</v>
+      </c>
+      <c r="Y1562">
+        <v>119</v>
+      </c>
+      <c r="Z1562">
+        <v>152</v>
+      </c>
+      <c r="AA1562">
+        <v>95</v>
+      </c>
+      <c r="AB1562">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1563">
+        <v>92</v>
+      </c>
+      <c r="W1563">
+        <v>46</v>
+      </c>
+      <c r="X1563">
+        <v>0</v>
+      </c>
+      <c r="Y1563">
+        <v>0</v>
+      </c>
+      <c r="Z1563">
+        <v>0</v>
+      </c>
+      <c r="AA1563">
+        <v>0</v>
+      </c>
+      <c r="AB1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1564">
+        <v>37</v>
+      </c>
+      <c r="W1564">
+        <v>19</v>
+      </c>
+      <c r="X1564">
+        <v>0</v>
+      </c>
+      <c r="Y1564">
+        <v>0</v>
+      </c>
+      <c r="Z1564">
+        <v>0</v>
+      </c>
+      <c r="AA1564">
+        <v>0</v>
+      </c>
+      <c r="AB1564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1565">
+        <v>376</v>
+      </c>
+      <c r="W1565">
+        <v>188</v>
+      </c>
+      <c r="X1565">
+        <v>0</v>
+      </c>
+      <c r="Y1565">
+        <v>18</v>
+      </c>
+      <c r="Z1565">
+        <v>36</v>
+      </c>
+      <c r="AA1565">
+        <v>39</v>
+      </c>
+      <c r="AB1565">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1566">
+        <v>1792</v>
+      </c>
+      <c r="W1566">
+        <v>1455</v>
+      </c>
+      <c r="X1566">
+        <v>1117</v>
+      </c>
+      <c r="Y1566">
+        <v>1798</v>
+      </c>
+      <c r="Z1566">
+        <v>2479</v>
+      </c>
+      <c r="AA1566">
+        <v>3193</v>
+      </c>
+      <c r="AB1566">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1567">
+        <v>700</v>
+      </c>
+      <c r="W1567">
+        <v>350</v>
+      </c>
+      <c r="X1567">
+        <v>0</v>
+      </c>
+      <c r="Y1567">
+        <v>0</v>
+      </c>
+      <c r="Z1567">
+        <v>0</v>
+      </c>
+      <c r="AA1567">
+        <v>61</v>
+      </c>
+      <c r="AB1567">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1568" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1568">
+        <v>16762981</v>
+      </c>
+      <c r="W1568">
+        <v>16889109</v>
+      </c>
+      <c r="X1568">
+        <v>17015236</v>
+      </c>
+      <c r="Y1568">
+        <v>17119860</v>
+      </c>
+      <c r="Z1568">
+        <v>17224483</v>
+      </c>
+      <c r="AA1568">
+        <v>17245430</v>
+      </c>
+      <c r="AB1568">
+        <v>17266376</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1569">
+        <v>519</v>
+      </c>
+      <c r="W1569">
+        <v>374</v>
+      </c>
+      <c r="X1569">
+        <v>229</v>
+      </c>
+      <c r="Y1569">
+        <v>230</v>
+      </c>
+      <c r="Z1569">
+        <v>231</v>
+      </c>
+      <c r="AA1569">
+        <v>193</v>
+      </c>
+      <c r="AB1569">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>3317</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1570">
+        <v>190</v>
+      </c>
+      <c r="W1570">
+        <v>95</v>
+      </c>
+      <c r="X1570">
+        <v>0</v>
+      </c>
+      <c r="Y1570">
+        <v>0</v>
+      </c>
+      <c r="Z1570">
+        <v>0</v>
+      </c>
+      <c r="AA1570">
+        <v>0</v>
+      </c>
+      <c r="AB1570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1571">
+        <v>64</v>
+      </c>
+      <c r="W1571">
+        <v>32</v>
+      </c>
+      <c r="X1571">
+        <v>0</v>
+      </c>
+      <c r="Y1571">
+        <v>0</v>
+      </c>
+      <c r="Z1571">
+        <v>0</v>
+      </c>
+      <c r="AA1571">
+        <v>0</v>
+      </c>
+      <c r="AB1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1572">
+        <v>8</v>
+      </c>
+      <c r="W1572">
+        <v>139</v>
+      </c>
+      <c r="X1572">
+        <v>269</v>
+      </c>
+      <c r="Y1572">
+        <v>334</v>
+      </c>
+      <c r="Z1572">
+        <v>398</v>
+      </c>
+      <c r="AA1572">
+        <v>212</v>
+      </c>
+      <c r="AB1572">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1573">
+        <v>27</v>
+      </c>
+      <c r="W1573">
+        <v>113</v>
+      </c>
+      <c r="X1573">
+        <v>199</v>
+      </c>
+      <c r="Y1573">
+        <v>111</v>
+      </c>
+      <c r="Z1573">
+        <v>22</v>
+      </c>
+      <c r="AA1573">
+        <v>54</v>
+      </c>
+      <c r="AB1573">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1574">
+        <v>613</v>
+      </c>
+      <c r="W1574">
+        <v>1367</v>
+      </c>
+      <c r="X1574">
+        <v>2121</v>
+      </c>
+      <c r="Y1574">
+        <v>2788</v>
+      </c>
+      <c r="Z1574">
+        <v>3454</v>
+      </c>
+      <c r="AA1574">
+        <v>3629</v>
+      </c>
+      <c r="AB1574">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1575">
+        <v>71304</v>
+      </c>
+      <c r="W1575">
+        <v>77547</v>
+      </c>
+      <c r="X1575">
+        <v>83789</v>
+      </c>
+      <c r="Y1575">
+        <v>86336</v>
+      </c>
+      <c r="Z1575">
+        <v>88883</v>
+      </c>
+      <c r="AA1575">
+        <v>105246</v>
+      </c>
+      <c r="AB1575">
+        <v>121608</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1576">
+        <v>151</v>
+      </c>
+      <c r="W1576">
+        <v>185</v>
+      </c>
+      <c r="X1576">
+        <v>219</v>
+      </c>
+      <c r="Y1576">
+        <v>321</v>
+      </c>
+      <c r="Z1576">
+        <v>423</v>
+      </c>
+      <c r="AA1576">
+        <v>347</v>
+      </c>
+      <c r="AB1576">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1577">
+        <v>9</v>
+      </c>
+      <c r="W1577">
+        <v>5</v>
+      </c>
+      <c r="X1577">
+        <v>0</v>
+      </c>
+      <c r="Y1577">
+        <v>88</v>
+      </c>
+      <c r="Z1577">
+        <v>175</v>
+      </c>
+      <c r="AA1577">
+        <v>130</v>
+      </c>
+      <c r="AB1577">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1578">
+        <v>1139</v>
+      </c>
+      <c r="W1578">
+        <v>1155</v>
+      </c>
+      <c r="X1578">
+        <v>1170</v>
+      </c>
+      <c r="Y1578">
+        <v>1015</v>
+      </c>
+      <c r="Z1578">
+        <v>860</v>
+      </c>
+      <c r="AA1578">
+        <v>797</v>
+      </c>
+      <c r="AB1578">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1579">
+        <v>1665</v>
+      </c>
+      <c r="W1579">
+        <v>1487</v>
+      </c>
+      <c r="X1579">
+        <v>1309</v>
+      </c>
+      <c r="Y1579">
+        <v>3524</v>
+      </c>
+      <c r="Z1579">
+        <v>5738</v>
+      </c>
+      <c r="AA1579">
+        <v>5587</v>
+      </c>
+      <c r="AB1579">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1580">
+        <v>131</v>
+      </c>
+      <c r="W1580">
+        <v>125</v>
+      </c>
+      <c r="X1580">
+        <v>119</v>
+      </c>
+      <c r="Y1580">
+        <v>84</v>
+      </c>
+      <c r="Z1580">
+        <v>48</v>
+      </c>
+      <c r="AA1580">
+        <v>31</v>
+      </c>
+      <c r="AB1580">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1581">
+        <v>49</v>
+      </c>
+      <c r="W1581">
+        <v>73</v>
+      </c>
+      <c r="X1581">
+        <v>96</v>
+      </c>
+      <c r="Y1581">
+        <v>156</v>
+      </c>
+      <c r="Z1581">
+        <v>215</v>
+      </c>
+      <c r="AA1581">
+        <v>505</v>
+      </c>
+      <c r="AB1581">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1582" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1582">
+        <v>12</v>
+      </c>
+      <c r="W1582">
+        <v>6</v>
+      </c>
+      <c r="X1582">
+        <v>0</v>
+      </c>
+      <c r="Y1582">
+        <v>61</v>
+      </c>
+      <c r="Z1582">
+        <v>121</v>
+      </c>
+      <c r="AA1582">
+        <v>105</v>
+      </c>
+      <c r="AB1582">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1583">
+        <v>876</v>
+      </c>
+      <c r="W1583">
+        <v>470</v>
+      </c>
+      <c r="X1583">
+        <v>63</v>
+      </c>
+      <c r="Y1583">
+        <v>56</v>
+      </c>
+      <c r="Z1583">
+        <v>49</v>
+      </c>
+      <c r="AA1583">
+        <v>54</v>
+      </c>
+      <c r="AB1583">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1584" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1584">
+        <v>103</v>
+      </c>
+      <c r="W1584">
+        <v>175</v>
+      </c>
+      <c r="X1584">
+        <v>246</v>
+      </c>
+      <c r="Y1584">
+        <v>288</v>
+      </c>
+      <c r="Z1584">
+        <v>330</v>
+      </c>
+      <c r="AA1584">
+        <v>238</v>
+      </c>
+      <c r="AB1584">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1585" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1585">
+        <v>118</v>
+      </c>
+      <c r="W1585">
+        <v>576</v>
+      </c>
+      <c r="X1585">
+        <v>1033</v>
+      </c>
+      <c r="Y1585">
+        <v>899</v>
+      </c>
+      <c r="Z1585">
+        <v>765</v>
+      </c>
+      <c r="AA1585">
+        <v>522</v>
+      </c>
+      <c r="AB1585">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1586" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1586">
+        <v>3626</v>
+      </c>
+      <c r="W1586">
+        <v>2435</v>
+      </c>
+      <c r="X1586">
+        <v>1243</v>
+      </c>
+      <c r="Y1586">
+        <v>2119</v>
+      </c>
+      <c r="Z1586">
+        <v>2994</v>
+      </c>
+      <c r="AA1586">
+        <v>3363</v>
+      </c>
+      <c r="AB1586">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1587" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1587">
+        <v>1620</v>
+      </c>
+      <c r="W1587">
+        <v>3121</v>
+      </c>
+      <c r="X1587">
+        <v>4621</v>
+      </c>
+      <c r="Y1587">
+        <v>7464</v>
+      </c>
+      <c r="Z1587">
+        <v>10307</v>
+      </c>
+      <c r="AA1587">
+        <v>45328</v>
+      </c>
+      <c r="AB1587">
+        <v>80348</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1588" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1588">
+        <v>0</v>
+      </c>
+      <c r="W1588">
+        <v>5</v>
+      </c>
+      <c r="X1588">
+        <v>10</v>
+      </c>
+      <c r="Y1588">
+        <v>5</v>
+      </c>
+      <c r="Z1588">
+        <v>0</v>
+      </c>
+      <c r="AA1588">
+        <v>0</v>
+      </c>
+      <c r="AB1588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1589" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1589">
+        <v>0</v>
+      </c>
+      <c r="W1589">
+        <v>118</v>
+      </c>
+      <c r="X1589">
+        <v>236</v>
+      </c>
+      <c r="Y1589">
+        <v>608</v>
+      </c>
+      <c r="Z1589">
+        <v>980</v>
+      </c>
+      <c r="AA1589">
+        <v>670</v>
+      </c>
+      <c r="AB1589">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1590" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1590">
+        <v>0</v>
+      </c>
+      <c r="W1590">
+        <v>41</v>
+      </c>
+      <c r="X1590">
+        <v>82</v>
+      </c>
+      <c r="Y1590">
+        <v>41</v>
+      </c>
+      <c r="Z1590">
+        <v>0</v>
+      </c>
+      <c r="AA1590">
+        <v>108</v>
+      </c>
+      <c r="AB1590">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1591" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1591">
+        <v>0</v>
+      </c>
+      <c r="W1591">
+        <v>214</v>
+      </c>
+      <c r="X1591">
+        <v>428</v>
+      </c>
+      <c r="Y1591">
+        <v>409</v>
+      </c>
+      <c r="Z1591">
+        <v>389</v>
+      </c>
+      <c r="AA1591">
+        <v>296</v>
+      </c>
+      <c r="AB1591">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1592" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1592">
+        <v>0</v>
+      </c>
+      <c r="W1592">
+        <v>71</v>
+      </c>
+      <c r="X1592">
+        <v>141</v>
+      </c>
+      <c r="Y1592">
+        <v>71</v>
+      </c>
+      <c r="Z1592">
+        <v>0</v>
+      </c>
+      <c r="AA1592">
+        <v>0</v>
+      </c>
+      <c r="AB1592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1593" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1593">
+        <v>0</v>
+      </c>
+      <c r="W1593">
+        <v>54</v>
+      </c>
+      <c r="X1593">
+        <v>107</v>
+      </c>
+      <c r="Y1593">
+        <v>54</v>
+      </c>
+      <c r="Z1593">
+        <v>0</v>
+      </c>
+      <c r="AA1593">
+        <v>0</v>
+      </c>
+      <c r="AB1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1594" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1594">
+        <v>0</v>
+      </c>
+      <c r="W1594">
+        <v>61</v>
+      </c>
+      <c r="X1594">
+        <v>122</v>
+      </c>
+      <c r="Y1594">
+        <v>61</v>
+      </c>
+      <c r="Z1594">
+        <v>0</v>
+      </c>
+      <c r="AA1594">
+        <v>0</v>
+      </c>
+      <c r="AB1594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1595" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1595">
+        <v>0</v>
+      </c>
+      <c r="W1595">
+        <v>121</v>
+      </c>
+      <c r="X1595">
+        <v>241</v>
+      </c>
+      <c r="Y1595">
+        <v>342</v>
+      </c>
+      <c r="Z1595">
+        <v>443</v>
+      </c>
+      <c r="AA1595">
+        <v>556</v>
+      </c>
+      <c r="AB1595">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F1596" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1596" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1596">
+        <v>0</v>
+      </c>
+      <c r="W1596">
+        <v>40</v>
+      </c>
+      <c r="X1596">
+        <v>80</v>
+      </c>
+      <c r="Y1596">
+        <v>106</v>
+      </c>
+      <c r="Z1596">
+        <v>132</v>
+      </c>
+      <c r="AA1596">
+        <v>66</v>
+      </c>
+      <c r="AB1596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1597" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1597">
+        <v>0</v>
+      </c>
+      <c r="W1597">
+        <v>8</v>
+      </c>
+      <c r="X1597">
+        <v>15</v>
+      </c>
+      <c r="Y1597">
+        <v>8</v>
+      </c>
+      <c r="Z1597">
+        <v>0</v>
+      </c>
+      <c r="AA1597">
+        <v>0</v>
+      </c>
+      <c r="AB1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F1598" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1598" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1598">
+        <v>0</v>
+      </c>
+      <c r="W1598">
+        <v>121</v>
+      </c>
+      <c r="X1598">
+        <v>242</v>
+      </c>
+      <c r="Y1598">
+        <v>121</v>
+      </c>
+      <c r="Z1598">
+        <v>0</v>
+      </c>
+      <c r="AA1598">
+        <v>79</v>
+      </c>
+      <c r="AB1598">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1599" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1599">
+        <v>0</v>
+      </c>
+      <c r="W1599">
+        <v>47</v>
+      </c>
+      <c r="X1599">
+        <v>94</v>
+      </c>
+      <c r="Y1599">
+        <v>72</v>
+      </c>
+      <c r="Z1599">
+        <v>49</v>
+      </c>
+      <c r="AA1599">
+        <v>25</v>
+      </c>
+      <c r="AB1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1600" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1600">
+        <v>0</v>
+      </c>
+      <c r="W1600">
+        <v>34</v>
+      </c>
+      <c r="X1600">
+        <v>67</v>
+      </c>
+      <c r="Y1600">
+        <v>63</v>
+      </c>
+      <c r="Z1600">
+        <v>59</v>
+      </c>
+      <c r="AA1600">
+        <v>96</v>
+      </c>
+      <c r="AB1600">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1601" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1601">
+        <v>0</v>
+      </c>
+      <c r="W1601">
+        <v>13</v>
+      </c>
+      <c r="X1601">
+        <v>25</v>
+      </c>
+      <c r="Y1601">
+        <v>54</v>
+      </c>
+      <c r="Z1601">
+        <v>83</v>
+      </c>
+      <c r="AA1601">
+        <v>42</v>
+      </c>
+      <c r="AB1601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F1602" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1602" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1602">
+        <v>0</v>
+      </c>
+      <c r="W1602">
+        <v>0</v>
+      </c>
+      <c r="X1602">
+        <v>0</v>
+      </c>
+      <c r="Y1602">
+        <v>12</v>
+      </c>
+      <c r="Z1602">
+        <v>24</v>
+      </c>
+      <c r="AA1602">
+        <v>12</v>
+      </c>
+      <c r="AB1602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1603" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1603">
+        <v>0</v>
+      </c>
+      <c r="W1603">
+        <v>0</v>
+      </c>
+      <c r="X1603">
+        <v>0</v>
+      </c>
+      <c r="Y1603">
+        <v>198</v>
+      </c>
+      <c r="Z1603">
+        <v>395</v>
+      </c>
+      <c r="AA1603">
+        <v>198</v>
+      </c>
+      <c r="AB1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1604" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1604">
+        <v>0</v>
+      </c>
+      <c r="W1604">
+        <v>0</v>
+      </c>
+      <c r="X1604">
+        <v>0</v>
+      </c>
+      <c r="Y1604">
+        <v>51</v>
+      </c>
+      <c r="Z1604">
+        <v>102</v>
+      </c>
+      <c r="AA1604">
+        <v>51</v>
+      </c>
+      <c r="AB1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1605" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1605">
+        <v>0</v>
+      </c>
+      <c r="W1605">
+        <v>0</v>
+      </c>
+      <c r="X1605">
+        <v>0</v>
+      </c>
+      <c r="Y1605">
+        <v>17</v>
+      </c>
+      <c r="Z1605">
+        <v>33</v>
+      </c>
+      <c r="AA1605">
+        <v>17</v>
+      </c>
+      <c r="AB1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1606" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1606" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1606">
+        <v>0</v>
+      </c>
+      <c r="W1606">
+        <v>0</v>
+      </c>
+      <c r="X1606">
+        <v>0</v>
+      </c>
+      <c r="Y1606">
+        <v>15</v>
+      </c>
+      <c r="Z1606">
+        <v>30</v>
+      </c>
+      <c r="AA1606">
+        <v>15</v>
+      </c>
+      <c r="AB1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1607" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1607">
+        <v>0</v>
+      </c>
+      <c r="W1607">
+        <v>0</v>
+      </c>
+      <c r="X1607">
+        <v>0</v>
+      </c>
+      <c r="Y1607">
+        <v>119</v>
+      </c>
+      <c r="Z1607">
+        <v>238</v>
+      </c>
+      <c r="AA1607">
+        <v>119</v>
+      </c>
+      <c r="AB1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1608" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1608">
+        <v>0</v>
+      </c>
+      <c r="W1608">
+        <v>0</v>
+      </c>
+      <c r="X1608">
+        <v>0</v>
+      </c>
+      <c r="Y1608">
+        <v>207</v>
+      </c>
+      <c r="Z1608">
+        <v>414</v>
+      </c>
+      <c r="AA1608">
+        <v>315</v>
+      </c>
+      <c r="AB1608">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F1609" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1609" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1609">
+        <v>0</v>
+      </c>
+      <c r="W1609">
+        <v>0</v>
+      </c>
+      <c r="X1609">
+        <v>0</v>
+      </c>
+      <c r="Y1609">
+        <v>15</v>
+      </c>
+      <c r="Z1609">
+        <v>30</v>
+      </c>
+      <c r="AA1609">
+        <v>15</v>
+      </c>
+      <c r="AB1609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1610" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1610">
+        <v>0</v>
+      </c>
+      <c r="W1610">
+        <v>0</v>
+      </c>
+      <c r="X1610">
+        <v>0</v>
+      </c>
+      <c r="Y1610">
+        <v>30</v>
+      </c>
+      <c r="Z1610">
+        <v>59</v>
+      </c>
+      <c r="AA1610">
+        <v>122</v>
+      </c>
+      <c r="AB1610">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1611" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1611">
+        <v>0</v>
+      </c>
+      <c r="W1611">
+        <v>0</v>
+      </c>
+      <c r="X1611">
+        <v>0</v>
+      </c>
+      <c r="Y1611">
+        <v>0</v>
+      </c>
+      <c r="Z1611">
+        <v>0</v>
+      </c>
+      <c r="AA1611">
+        <v>69</v>
+      </c>
+      <c r="AB1611">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1612" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1612">
+        <v>0</v>
+      </c>
+      <c r="W1612">
+        <v>0</v>
+      </c>
+      <c r="X1612">
+        <v>0</v>
+      </c>
+      <c r="Y1612">
+        <v>0</v>
+      </c>
+      <c r="Z1612">
+        <v>0</v>
+      </c>
+      <c r="AA1612">
+        <v>88</v>
+      </c>
+      <c r="AB1612">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1613" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1613">
+        <v>0</v>
+      </c>
+      <c r="W1613">
+        <v>0</v>
+      </c>
+      <c r="X1613">
+        <v>0</v>
+      </c>
+      <c r="Y1613">
+        <v>0</v>
+      </c>
+      <c r="Z1613">
+        <v>0</v>
+      </c>
+      <c r="AA1613">
+        <v>88</v>
+      </c>
+      <c r="AB1613">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1614" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1614">
+        <v>0</v>
+      </c>
+      <c r="W1614">
+        <v>0</v>
+      </c>
+      <c r="X1614">
+        <v>0</v>
+      </c>
+      <c r="Y1614">
+        <v>0</v>
+      </c>
+      <c r="Z1614">
+        <v>0</v>
+      </c>
+      <c r="AA1614">
+        <v>53</v>
+      </c>
+      <c r="AB1614">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1615" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1615">
+        <v>0</v>
+      </c>
+      <c r="W1615">
+        <v>0</v>
+      </c>
+      <c r="X1615">
+        <v>0</v>
+      </c>
+      <c r="Y1615">
+        <v>0</v>
+      </c>
+      <c r="Z1615">
+        <v>0</v>
+      </c>
+      <c r="AA1615">
+        <v>18</v>
+      </c>
+      <c r="AB1615">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1616" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1616">
+        <v>0</v>
+      </c>
+      <c r="W1616">
+        <v>0</v>
+      </c>
+      <c r="X1616">
+        <v>0</v>
+      </c>
+      <c r="Y1616">
+        <v>0</v>
+      </c>
+      <c r="Z1616">
+        <v>0</v>
+      </c>
+      <c r="AA1616">
+        <v>42</v>
+      </c>
+      <c r="AB1616">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1617" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1617">
+        <v>0</v>
+      </c>
+      <c r="W1617">
+        <v>0</v>
+      </c>
+      <c r="X1617">
+        <v>0</v>
+      </c>
+      <c r="Y1617">
+        <v>0</v>
+      </c>
+      <c r="Z1617">
+        <v>0</v>
+      </c>
+      <c r="AA1617">
+        <v>80</v>
+      </c>
+      <c r="AB1617">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1618" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1618">
+        <v>4804449</v>
+      </c>
+      <c r="W1618">
+        <v>4915167</v>
+      </c>
+      <c r="X1618">
+        <v>5025884</v>
+      </c>
+      <c r="Y1618">
+        <v>5115725</v>
+      </c>
+      <c r="Z1618">
+        <v>5205566</v>
+      </c>
+      <c r="AA1618">
+        <v>7209032</v>
+      </c>
+      <c r="AB1618">
+        <v>9212498</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1619" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1619">
+        <v>38105</v>
+      </c>
+      <c r="W1619">
+        <v>35090</v>
+      </c>
+      <c r="X1619">
+        <v>32075</v>
+      </c>
+      <c r="Y1619">
+        <v>28259</v>
+      </c>
+      <c r="Z1619">
+        <v>24442</v>
+      </c>
+      <c r="AA1619">
+        <v>41088</v>
+      </c>
+      <c r="AB1619">
+        <v>57734</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1620" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1620" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1620">
+        <v>344908</v>
+      </c>
+      <c r="W1620">
+        <v>332776</v>
+      </c>
+      <c r="X1620">
+        <v>320644</v>
+      </c>
+      <c r="Y1620">
+        <v>310974</v>
+      </c>
+      <c r="Z1620">
+        <v>301303</v>
+      </c>
+      <c r="AA1620">
+        <v>395823</v>
+      </c>
+      <c r="AB1620">
+        <v>490343</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1621" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1621">
+        <v>2302552</v>
+      </c>
+      <c r="W1621">
+        <v>2244517</v>
+      </c>
+      <c r="X1621">
+        <v>2186482</v>
+      </c>
+      <c r="Y1621">
+        <v>2221866</v>
+      </c>
+      <c r="Z1621">
+        <v>2257250</v>
+      </c>
+      <c r="AA1621">
+        <v>3691881</v>
+      </c>
+      <c r="AB1621">
+        <v>5126511</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1622" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1622" s="14">
+        <v>0</v>
+      </c>
+      <c r="W1622" s="14">
+        <v>0</v>
+      </c>
+      <c r="X1622" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y1622" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z1622" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA1622" s="14">
+        <v>37</v>
+      </c>
+      <c r="AB1622" s="14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1623" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1623" s="14">
+        <v>261948</v>
+      </c>
+      <c r="W1623" s="14">
+        <v>256789</v>
+      </c>
+      <c r="X1623" s="14">
+        <v>251630</v>
+      </c>
+      <c r="Y1623" s="14">
+        <v>258814</v>
+      </c>
+      <c r="Z1623" s="14">
+        <v>265997</v>
+      </c>
+      <c r="AA1623" s="14">
+        <v>275802</v>
+      </c>
+      <c r="AB1623" s="14">
+        <v>285606</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1624" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1624" s="14">
+        <v>2145699</v>
+      </c>
+      <c r="W1624" s="14">
+        <v>2178764</v>
+      </c>
+      <c r="X1624" s="14">
+        <v>2211829</v>
+      </c>
+      <c r="Y1624" s="14">
+        <v>2216142</v>
+      </c>
+      <c r="Z1624" s="14">
+        <v>2220455</v>
+      </c>
+      <c r="AA1624" s="14">
+        <v>2613496</v>
+      </c>
+      <c r="AB1624" s="14">
+        <v>3006536</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1625" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1625" s="14">
+        <v>2426094</v>
+      </c>
+      <c r="W1625" s="14">
+        <v>2441445</v>
+      </c>
+      <c r="X1625" s="14">
+        <v>2456796</v>
+      </c>
+      <c r="Y1625" s="14">
+        <v>2518649</v>
+      </c>
+      <c r="Z1625" s="14">
+        <v>2580501</v>
+      </c>
+      <c r="AA1625" s="14">
+        <v>3851540</v>
+      </c>
+      <c r="AB1625" s="14">
+        <v>5122579</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1626" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1626" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1626" s="14">
+        <v>329121</v>
+      </c>
+      <c r="W1626" s="14">
+        <v>342188</v>
+      </c>
+      <c r="X1626" s="14">
+        <v>355255</v>
+      </c>
+      <c r="Y1626" s="14">
+        <v>371461</v>
+      </c>
+      <c r="Z1626" s="14">
+        <v>387667</v>
+      </c>
+      <c r="AA1626" s="14">
+        <v>714703</v>
+      </c>
+      <c r="AB1626" s="14">
+        <v>1041739</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1627" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1627" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1627" s="14">
+        <v>17567</v>
+      </c>
+      <c r="W1627" s="14">
+        <v>20042</v>
+      </c>
+      <c r="X1627" s="14">
+        <v>22517</v>
+      </c>
+      <c r="Y1627" s="14">
+        <v>21049</v>
+      </c>
+      <c r="Z1627" s="14">
+        <v>19581</v>
+      </c>
+      <c r="AA1627" s="14">
+        <v>53941</v>
+      </c>
+      <c r="AB1627" s="14">
+        <v>88301</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1628" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1628" s="14">
+        <v>0</v>
+      </c>
+      <c r="W1628" s="14">
+        <v>0</v>
+      </c>
+      <c r="X1628" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y1628" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z1628" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA1628" s="14">
+        <v>1282</v>
+      </c>
+      <c r="AB1628" s="14">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1629" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1629" s="14">
+        <v>0</v>
+      </c>
+      <c r="W1629" s="14">
+        <v>0</v>
+      </c>
+      <c r="X1629" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y1629" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z1629" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA1629" s="14">
+        <v>129</v>
+      </c>
+      <c r="AB1629" s="14">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1630" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1630" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1630" s="14">
+        <v>2844557</v>
+      </c>
+      <c r="W1630" s="14">
+        <v>2798237</v>
+      </c>
+      <c r="X1630" s="14">
+        <v>2751916</v>
+      </c>
+      <c r="Y1630" s="14">
+        <v>2727961</v>
+      </c>
+      <c r="Z1630" s="14">
+        <v>2704005</v>
+      </c>
+      <c r="AA1630" s="14">
+        <v>2748382</v>
+      </c>
+      <c r="AB1630" s="14">
+        <v>2792758</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1631" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1631" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1631" s="14">
+        <v>2588830</v>
+      </c>
+      <c r="W1631" s="14">
+        <v>2583878</v>
+      </c>
+      <c r="X1631" s="14">
+        <v>2578925</v>
+      </c>
+      <c r="Y1631" s="14">
+        <v>2635015</v>
+      </c>
+      <c r="Z1631" s="14">
+        <v>2691105</v>
+      </c>
+      <c r="AA1631" s="14">
+        <v>2637036</v>
+      </c>
+      <c r="AB1631" s="14">
+        <v>2582966</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1632" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1632" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1632" s="14">
+        <v>445535</v>
+      </c>
+      <c r="W1632" s="14">
+        <v>471664</v>
+      </c>
+      <c r="X1632" s="14">
+        <v>497792</v>
+      </c>
+      <c r="Y1632" s="14">
+        <v>527861</v>
+      </c>
+      <c r="Z1632" s="14">
+        <v>557929</v>
+      </c>
+      <c r="AA1632" s="14">
+        <v>573680</v>
+      </c>
+      <c r="AB1632" s="14">
+        <v>589430</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1633" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1633" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1633" s="14">
+        <v>853010</v>
+      </c>
+      <c r="W1633" s="14">
+        <v>900720</v>
+      </c>
+      <c r="X1633" s="14">
+        <v>948429</v>
+      </c>
+      <c r="Y1633" s="14">
+        <v>1023930</v>
+      </c>
+      <c r="Z1633" s="14">
+        <v>1099430</v>
+      </c>
+      <c r="AA1633" s="14">
+        <v>1157050</v>
+      </c>
+      <c r="AB1633" s="14">
+        <v>1214669</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1634" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1634" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1634" s="14">
+        <v>92137</v>
+      </c>
+      <c r="W1634" s="14">
+        <v>95030</v>
+      </c>
+      <c r="X1634" s="14">
+        <v>97923</v>
+      </c>
+      <c r="Y1634" s="14">
+        <v>90021</v>
+      </c>
+      <c r="Z1634" s="14">
+        <v>82119</v>
+      </c>
+      <c r="AA1634" s="14">
+        <v>82335</v>
+      </c>
+      <c r="AB1634" s="14">
+        <v>82551</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1635" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1635" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1635" s="14">
+        <v>215210</v>
+      </c>
+      <c r="W1635" s="14">
+        <v>204028</v>
+      </c>
+      <c r="X1635" s="14">
+        <v>192846</v>
+      </c>
+      <c r="Y1635" s="14">
+        <v>196469</v>
+      </c>
+      <c r="Z1635" s="14">
+        <v>200091</v>
+      </c>
+      <c r="AA1635" s="14">
+        <v>194805</v>
+      </c>
+      <c r="AB1635" s="14">
+        <v>189519</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1636" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1636" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1636" s="14">
+        <v>32227</v>
+      </c>
+      <c r="W1636" s="14">
+        <v>24323</v>
+      </c>
+      <c r="X1636" s="14">
+        <v>16419</v>
+      </c>
+      <c r="Y1636" s="14">
+        <v>17256</v>
+      </c>
+      <c r="Z1636" s="14">
+        <v>18093</v>
+      </c>
+      <c r="AA1636" s="14">
+        <v>23407</v>
+      </c>
+      <c r="AB1636" s="14">
+        <v>28720</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1637" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1637" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1637" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1637" s="14">
+        <v>771899</v>
+      </c>
+      <c r="W1637" s="14">
+        <v>682414</v>
+      </c>
+      <c r="X1637" s="14">
+        <v>592928</v>
+      </c>
+      <c r="Y1637" s="14">
+        <v>608277</v>
+      </c>
+      <c r="Z1637" s="14">
+        <v>623625</v>
+      </c>
+      <c r="AA1637" s="14">
+        <v>621743</v>
+      </c>
+      <c r="AB1637" s="14">
+        <v>619860</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1638" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1638" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1638" s="14">
+        <v>774236</v>
+      </c>
+      <c r="W1638" s="14">
+        <v>804113</v>
+      </c>
+      <c r="X1638" s="14">
+        <v>833990</v>
+      </c>
+      <c r="Y1638" s="14">
+        <v>787490</v>
+      </c>
+      <c r="Z1638" s="14">
+        <v>740990</v>
+      </c>
+      <c r="AA1638" s="14">
+        <v>788100</v>
+      </c>
+      <c r="AB1638" s="14">
+        <v>835210</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1639" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1639" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1639" s="14">
+        <v>17899</v>
+      </c>
+      <c r="W1639" s="14">
+        <v>15587</v>
+      </c>
+      <c r="X1639" s="14">
+        <v>13274</v>
+      </c>
+      <c r="Y1639" s="14">
+        <v>14104</v>
+      </c>
+      <c r="Z1639" s="14">
+        <v>14934</v>
+      </c>
+      <c r="AA1639" s="14">
+        <v>16212</v>
+      </c>
+      <c r="AB1639" s="14">
+        <v>17489</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1640" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1640" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1640" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1640" s="14">
+        <v>66478</v>
+      </c>
+      <c r="W1640" s="14">
+        <v>77457</v>
+      </c>
+      <c r="X1640" s="14">
+        <v>88436</v>
+      </c>
+      <c r="Y1640" s="14">
+        <v>86695</v>
+      </c>
+      <c r="Z1640" s="14">
+        <v>84954</v>
+      </c>
+      <c r="AA1640" s="14">
+        <v>76859</v>
+      </c>
+      <c r="AB1640" s="14">
+        <v>68763</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1641" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1641" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1641" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1641" s="14">
+        <v>246085</v>
+      </c>
+      <c r="W1641" s="14">
+        <v>249602</v>
+      </c>
+      <c r="X1641" s="14">
+        <v>253119</v>
+      </c>
+      <c r="Y1641" s="14">
+        <v>267322</v>
+      </c>
+      <c r="Z1641" s="14">
+        <v>281524</v>
+      </c>
+      <c r="AA1641" s="14">
+        <v>275552</v>
+      </c>
+      <c r="AB1641" s="14">
+        <v>269580</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1642" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V1642" s="14">
+        <v>269340</v>
+      </c>
+      <c r="W1642" s="14">
+        <v>259416</v>
+      </c>
+      <c r="X1642" s="14">
+        <v>249491</v>
+      </c>
+      <c r="Y1642" s="14">
+        <v>253621</v>
+      </c>
+      <c r="Z1642" s="14">
+        <v>257750</v>
+      </c>
+      <c r="AA1642" s="14">
+        <v>270224</v>
+      </c>
+      <c r="AB1642" s="14">
+        <v>282698</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F1643" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>920</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1643" s="14">
+        <v>49070</v>
+      </c>
+      <c r="R1643" s="14">
+        <v>61839</v>
+      </c>
+      <c r="S1643" s="14">
+        <v>74609</v>
+      </c>
+      <c r="T1643" s="14">
+        <v>87378</v>
+      </c>
+      <c r="U1643" s="14">
+        <v>1870480</v>
+      </c>
+      <c r="V1643" s="14">
+        <v>3653582</v>
+      </c>
+      <c r="W1643" s="14">
+        <v>3500789</v>
+      </c>
+      <c r="X1643" s="14">
+        <v>3347995</v>
+      </c>
+      <c r="Y1643" s="14">
+        <v>3284008</v>
+      </c>
+      <c r="Z1643" s="14">
+        <v>3220020</v>
+      </c>
+      <c r="AA1643" s="14">
+        <v>2762169</v>
+      </c>
+      <c r="AB1643" s="14">
+        <v>2304317</v>
+      </c>
+      <c r="AC1643" s="14">
+        <v>2489200</v>
+      </c>
+      <c r="AD1643" s="14">
+        <v>2674083</v>
+      </c>
+      <c r="AE1643" s="14">
+        <v>2858966</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F1644" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1644" t="s">
+        <v>920</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1644" s="14">
+        <v>502919</v>
+      </c>
+      <c r="R1644" s="14">
+        <v>571892</v>
+      </c>
+      <c r="S1644" s="14">
+        <v>640866</v>
+      </c>
+      <c r="T1644" s="14">
+        <v>709839</v>
+      </c>
+      <c r="U1644" s="14">
+        <v>2133089</v>
+      </c>
+      <c r="V1644" s="14">
+        <v>3556338</v>
+      </c>
+      <c r="W1644" s="14">
+        <v>3675714</v>
+      </c>
+      <c r="X1644" s="14">
+        <v>3795089</v>
+      </c>
+      <c r="Y1644" s="14">
+        <v>3874481</v>
+      </c>
+      <c r="Z1644" s="14">
+        <v>3953872</v>
+      </c>
+      <c r="AA1644" s="14">
+        <v>4089993</v>
+      </c>
+      <c r="AB1644" s="14">
+        <v>4226113</v>
+      </c>
+      <c r="AC1644" s="14">
+        <v>4597209</v>
+      </c>
+      <c r="AD1644" s="14">
+        <v>4968304</v>
+      </c>
+      <c r="AE1644" s="14">
+        <v>5339400</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1645" s="14">
+        <v>4815877</v>
+      </c>
+      <c r="R1645" s="14">
+        <v>5078977</v>
+      </c>
+      <c r="S1645" s="14">
+        <v>5342077</v>
+      </c>
+      <c r="T1645" s="14">
+        <v>5605177</v>
+      </c>
+      <c r="U1645" s="14">
+        <v>5024818</v>
+      </c>
+      <c r="V1645" s="14">
+        <v>4444459</v>
+      </c>
+      <c r="W1645" s="14">
+        <v>4693354</v>
+      </c>
+      <c r="X1645" s="14">
+        <v>4942248</v>
+      </c>
+      <c r="Y1645" s="14">
+        <v>4801035</v>
+      </c>
+      <c r="Z1645" s="14">
+        <v>4659822</v>
+      </c>
+      <c r="AA1645" s="14">
+        <v>4432635</v>
+      </c>
+      <c r="AB1645" s="14">
+        <v>4205448</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F1646" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1646" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1646" s="14">
+        <v>447810</v>
+      </c>
+      <c r="R1646" s="14">
+        <v>458587</v>
+      </c>
+      <c r="S1646" s="14">
+        <v>469364</v>
+      </c>
+      <c r="T1646" s="14">
+        <v>480141</v>
+      </c>
+      <c r="U1646" s="14">
+        <v>850928</v>
+      </c>
+      <c r="V1646" s="14">
+        <v>1221714</v>
+      </c>
+      <c r="W1646" s="14">
+        <v>1143349</v>
+      </c>
+      <c r="X1646" s="14">
+        <v>1064983</v>
+      </c>
+      <c r="Y1646" s="14">
+        <v>1123336</v>
+      </c>
+      <c r="Z1646" s="14">
+        <v>1181688</v>
+      </c>
+      <c r="AA1646" s="14">
+        <v>1186933</v>
+      </c>
+      <c r="AB1646" s="14">
+        <v>1192177</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F1647" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1647" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1647" s="14">
+        <v>909546</v>
+      </c>
+      <c r="R1647" s="14">
+        <v>767654</v>
+      </c>
+      <c r="S1647" s="14">
+        <v>625762</v>
+      </c>
+      <c r="T1647" s="14">
+        <v>483870</v>
+      </c>
+      <c r="U1647" s="14">
+        <v>1013809</v>
+      </c>
+      <c r="V1647" s="14">
+        <v>1543747</v>
+      </c>
+      <c r="W1647" s="14">
+        <v>1338746</v>
+      </c>
+      <c r="X1647" s="14">
+        <v>1133745</v>
+      </c>
+      <c r="Y1647" s="14">
+        <v>1232855</v>
+      </c>
+      <c r="Z1647" s="14">
+        <v>1331964</v>
+      </c>
+      <c r="AA1647" s="14">
+        <v>1229147</v>
+      </c>
+      <c r="AB1647" s="14">
+        <v>1126330</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F1648" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1648" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1648" s="14">
+        <v>3637493</v>
+      </c>
+      <c r="R1648" s="14">
+        <v>3620360</v>
+      </c>
+      <c r="S1648" s="14">
+        <v>3603226</v>
+      </c>
+      <c r="T1648" s="14">
+        <v>3586093</v>
+      </c>
+      <c r="U1648" s="14">
+        <v>3646139</v>
+      </c>
+      <c r="V1648" s="14">
+        <v>3706184</v>
+      </c>
+      <c r="W1648" s="14">
+        <v>3740529</v>
+      </c>
+      <c r="X1648" s="14">
+        <v>3774873</v>
+      </c>
+      <c r="Y1648" s="14">
+        <v>3814108</v>
+      </c>
+      <c r="Z1648" s="14">
+        <v>3853342</v>
+      </c>
+      <c r="AA1648" s="14">
+        <v>3824140</v>
+      </c>
+      <c r="AB1648" s="14">
+        <v>3794937</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F1649" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1649" s="14">
+        <v>3540865</v>
+      </c>
+      <c r="R1649" s="14">
+        <v>3581013</v>
+      </c>
+      <c r="S1649" s="14">
+        <v>3621162</v>
+      </c>
+      <c r="T1649" s="14">
+        <v>3661310</v>
+      </c>
+      <c r="U1649" s="14">
+        <v>3685390</v>
+      </c>
+      <c r="V1649" s="14">
+        <v>3709470</v>
+      </c>
+      <c r="W1649" s="14">
+        <v>3803563</v>
+      </c>
+      <c r="X1649" s="14">
+        <v>3897656</v>
+      </c>
+      <c r="Y1649" s="14">
+        <v>3905073</v>
+      </c>
+      <c r="Z1649" s="14">
+        <v>3912489</v>
+      </c>
+      <c r="AA1649" s="14">
+        <v>4031307</v>
+      </c>
+      <c r="AB1649" s="14">
+        <v>4150125</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>3483</v>
+      </c>
+      <c r="F1650" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1650" s="14">
+        <v>3218148</v>
+      </c>
+      <c r="R1650" s="14">
+        <v>3294073</v>
+      </c>
+      <c r="S1650" s="14">
+        <v>3369997</v>
+      </c>
+      <c r="T1650" s="14">
+        <v>3445922</v>
+      </c>
+      <c r="U1650" s="14">
+        <v>3491004</v>
+      </c>
+      <c r="V1650" s="14">
+        <v>3536085</v>
+      </c>
+      <c r="W1650" s="14">
+        <v>3593822</v>
+      </c>
+      <c r="X1650" s="14">
+        <v>3651559</v>
+      </c>
+      <c r="Y1650" s="14">
+        <v>3668535</v>
+      </c>
+      <c r="Z1650" s="14">
+        <v>3685510</v>
+      </c>
+      <c r="AA1650" s="14">
+        <v>3725141</v>
+      </c>
+      <c r="AB1650" s="14">
+        <v>3764772</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>3484</v>
+      </c>
+      <c r="F1651" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1651" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1651" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1651" s="14">
+        <v>3048730</v>
+      </c>
+      <c r="R1651" s="14">
+        <v>3104717</v>
+      </c>
+      <c r="S1651" s="14">
+        <v>3160703</v>
+      </c>
+      <c r="T1651" s="14">
+        <v>3216690</v>
+      </c>
+      <c r="U1651" s="14">
+        <v>3230493</v>
+      </c>
+      <c r="V1651" s="14">
+        <v>3244295</v>
+      </c>
+      <c r="W1651" s="14">
+        <v>3248133</v>
+      </c>
+      <c r="X1651" s="14">
+        <v>3251970</v>
+      </c>
+      <c r="Y1651" s="14">
+        <v>3292431</v>
+      </c>
+      <c r="Z1651" s="14">
+        <v>3332892</v>
+      </c>
+      <c r="AA1651" s="14">
+        <v>3331378</v>
+      </c>
+      <c r="AB1651" s="14">
+        <v>3329863</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1652" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1652" s="14">
+        <v>2669493</v>
+      </c>
+      <c r="R1652" s="14">
+        <v>2671164</v>
+      </c>
+      <c r="S1652" s="14">
+        <v>2672835</v>
+      </c>
+      <c r="T1652" s="14">
+        <v>2674506</v>
+      </c>
+      <c r="U1652" s="14">
+        <v>2690507</v>
+      </c>
+      <c r="V1652" s="14">
+        <v>2706508</v>
+      </c>
+      <c r="W1652" s="14">
+        <v>2674425</v>
+      </c>
+      <c r="X1652" s="14">
+        <v>2642341</v>
+      </c>
+      <c r="Y1652" s="14">
+        <v>2674249</v>
+      </c>
+      <c r="Z1652" s="14">
+        <v>2706156</v>
+      </c>
+      <c r="AA1652" s="14">
+        <v>2707745</v>
+      </c>
+      <c r="AB1652" s="14">
+        <v>2709333</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F1653" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1653" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1653" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1653" s="14">
+        <v>1744852</v>
+      </c>
+      <c r="R1653" s="14">
+        <v>1720608</v>
+      </c>
+      <c r="S1653" s="14">
+        <v>1696364</v>
+      </c>
+      <c r="T1653" s="14">
+        <v>1672120</v>
+      </c>
+      <c r="U1653" s="14">
+        <v>1690558</v>
+      </c>
+      <c r="V1653" s="14">
+        <v>1708996</v>
+      </c>
+      <c r="W1653" s="14">
+        <v>1727597</v>
+      </c>
+      <c r="X1653" s="14">
+        <v>1746197</v>
+      </c>
+      <c r="Y1653" s="14">
+        <v>1750410</v>
+      </c>
+      <c r="Z1653" s="14">
+        <v>1754622</v>
+      </c>
+      <c r="AA1653" s="14">
+        <v>1754659</v>
+      </c>
+      <c r="AB1653" s="14">
+        <v>1754695</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F1654" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1654" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1654" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1654" s="14">
+        <v>1892641</v>
+      </c>
+      <c r="R1654" s="14">
+        <v>1899752</v>
+      </c>
+      <c r="S1654" s="14">
+        <v>1906862</v>
+      </c>
+      <c r="T1654" s="14">
+        <v>1913973</v>
+      </c>
+      <c r="U1654" s="14">
+        <v>1955581</v>
+      </c>
+      <c r="V1654" s="14">
+        <v>1997188</v>
+      </c>
+      <c r="W1654" s="14">
+        <v>2012932</v>
+      </c>
+      <c r="X1654" s="14">
+        <v>2028676</v>
+      </c>
+      <c r="Y1654" s="14">
+        <v>2063698</v>
+      </c>
+      <c r="Z1654" s="14">
+        <v>2098720</v>
+      </c>
+      <c r="AA1654" s="14">
+        <v>2069481</v>
+      </c>
+      <c r="AB1654" s="14">
+        <v>2040242</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F1655" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1655" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1655" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1655" s="14">
+        <v>1809204</v>
+      </c>
+      <c r="R1655" s="14">
+        <v>1835120</v>
+      </c>
+      <c r="S1655" s="14">
+        <v>1861035</v>
+      </c>
+      <c r="T1655" s="14">
+        <v>1886951</v>
+      </c>
+      <c r="U1655" s="14">
+        <v>1919447</v>
+      </c>
+      <c r="V1655" s="14">
+        <v>1951942</v>
+      </c>
+      <c r="W1655" s="14">
+        <v>1944213</v>
+      </c>
+      <c r="X1655" s="14">
+        <v>1936483</v>
+      </c>
+      <c r="Y1655" s="14">
+        <v>1965013</v>
+      </c>
+      <c r="Z1655" s="14">
+        <v>1993543</v>
+      </c>
+      <c r="AA1655" s="14">
+        <v>2088809</v>
+      </c>
+      <c r="AB1655" s="14">
+        <v>2184075</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F1656" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1656" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1656" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1656" s="14">
+        <v>1731661</v>
+      </c>
+      <c r="R1656" s="14">
+        <v>1745894</v>
+      </c>
+      <c r="S1656" s="14">
+        <v>1760126</v>
+      </c>
+      <c r="T1656" s="14">
+        <v>1774359</v>
+      </c>
+      <c r="U1656" s="14">
+        <v>1765944</v>
+      </c>
+      <c r="V1656" s="14">
+        <v>1757528</v>
+      </c>
+      <c r="W1656" s="14">
+        <v>1859351</v>
+      </c>
+      <c r="X1656" s="14">
+        <v>1961173</v>
+      </c>
+      <c r="Y1656" s="14">
+        <v>1940060</v>
+      </c>
+      <c r="Z1656" s="14">
+        <v>1918946</v>
+      </c>
+      <c r="AA1656" s="14">
+        <v>1942498</v>
+      </c>
+      <c r="AB1656" s="14">
+        <v>1966050</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F1657" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1657" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1657" s="14">
+        <v>1417821</v>
+      </c>
+      <c r="R1657" s="14">
+        <v>1423950</v>
+      </c>
+      <c r="S1657" s="14">
+        <v>1430079</v>
+      </c>
+      <c r="T1657" s="14">
+        <v>1436208</v>
+      </c>
+      <c r="U1657" s="14">
+        <v>1448508</v>
+      </c>
+      <c r="V1657" s="14">
+        <v>1460807</v>
+      </c>
+      <c r="W1657" s="14">
+        <v>1474808</v>
+      </c>
+      <c r="X1657" s="14">
+        <v>1488809</v>
+      </c>
+      <c r="Y1657" s="14">
+        <v>1471469</v>
+      </c>
+      <c r="Z1657" s="14">
+        <v>1454128</v>
+      </c>
+      <c r="AA1657" s="14">
+        <v>1469886</v>
+      </c>
+      <c r="AB1657" s="14">
+        <v>1485644</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F1658" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1658" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1658" s="14">
+        <v>1609822</v>
+      </c>
+      <c r="R1658" s="14">
+        <v>1646000</v>
+      </c>
+      <c r="S1658" s="14">
+        <v>1682177</v>
+      </c>
+      <c r="T1658" s="14">
+        <v>1718355</v>
+      </c>
+      <c r="U1658" s="14">
+        <v>1773156</v>
+      </c>
+      <c r="V1658" s="14">
+        <v>1827957</v>
+      </c>
+      <c r="W1658" s="14">
+        <v>1824199</v>
+      </c>
+      <c r="X1658" s="14">
+        <v>1820440</v>
+      </c>
+      <c r="Y1658" s="14">
+        <v>1838735</v>
+      </c>
+      <c r="Z1658" s="14">
+        <v>1857029</v>
+      </c>
+      <c r="AA1658" s="14">
+        <v>1860956</v>
+      </c>
+      <c r="AB1658" s="14">
+        <v>1864883</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F1659" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1659" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1659" s="14">
+        <v>1608326</v>
+      </c>
+      <c r="R1659" s="14">
+        <v>1648073</v>
+      </c>
+      <c r="S1659" s="14">
+        <v>1687820</v>
+      </c>
+      <c r="T1659" s="14">
+        <v>1727567</v>
+      </c>
+      <c r="U1659" s="14">
+        <v>1717848</v>
+      </c>
+      <c r="V1659" s="14">
+        <v>1708128</v>
+      </c>
+      <c r="W1659" s="14">
+        <v>1769624</v>
+      </c>
+      <c r="X1659" s="14">
+        <v>1831119</v>
+      </c>
+      <c r="Y1659" s="14">
+        <v>1829800</v>
+      </c>
+      <c r="Z1659" s="14">
+        <v>1828481</v>
+      </c>
+      <c r="AA1659" s="14">
+        <v>1864185</v>
+      </c>
+      <c r="AB1659" s="14">
+        <v>1899889</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1660" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1660" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1660" s="14">
+        <v>1561274</v>
+      </c>
+      <c r="R1660" s="14">
+        <v>1582635</v>
+      </c>
+      <c r="S1660" s="14">
+        <v>1603995</v>
+      </c>
+      <c r="T1660" s="14">
+        <v>1625356</v>
+      </c>
+      <c r="U1660" s="14">
+        <v>1635728</v>
+      </c>
+      <c r="V1660" s="14">
+        <v>1646100</v>
+      </c>
+      <c r="W1660" s="14">
+        <v>1655827</v>
+      </c>
+      <c r="X1660" s="14">
+        <v>1665553</v>
+      </c>
+      <c r="Y1660" s="14">
+        <v>1687190</v>
+      </c>
+      <c r="Z1660" s="14">
+        <v>1708827</v>
+      </c>
+      <c r="AA1660" s="14">
+        <v>1716927</v>
+      </c>
+      <c r="AB1660" s="14">
+        <v>1725026</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1661" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1661" s="14">
+        <v>1487456</v>
+      </c>
+      <c r="R1661" s="14">
+        <v>1522082</v>
+      </c>
+      <c r="S1661" s="14">
+        <v>1556708</v>
+      </c>
+      <c r="T1661" s="14">
+        <v>1591334</v>
+      </c>
+      <c r="U1661" s="14">
+        <v>1594765</v>
+      </c>
+      <c r="V1661" s="14">
+        <v>1598195</v>
+      </c>
+      <c r="W1661" s="14">
+        <v>1592306</v>
+      </c>
+      <c r="X1661" s="14">
+        <v>1586417</v>
+      </c>
+      <c r="Y1661" s="14">
+        <v>1605241</v>
+      </c>
+      <c r="Z1661" s="14">
+        <v>1624065</v>
+      </c>
+      <c r="AA1661" s="14">
+        <v>1614451</v>
+      </c>
+      <c r="AB1661" s="14">
+        <v>1604837</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F1662" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J1662" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q1662" s="14">
+        <v>1251672</v>
+      </c>
+      <c r="R1662" s="14">
+        <v>1247214</v>
+      </c>
+      <c r="S1662" s="14">
+        <v>1242756</v>
+      </c>
+      <c r="T1662" s="14">
+        <v>1238298</v>
+      </c>
+      <c r="U1662" s="14">
+        <v>1242000</v>
+      </c>
+      <c r="V1662" s="14">
+        <v>1245701</v>
+      </c>
+      <c r="W1662" s="14">
+        <v>1199617</v>
+      </c>
+      <c r="X1662" s="14">
+        <v>1153532</v>
+      </c>
+      <c r="Y1662" s="14">
+        <v>1202780</v>
+      </c>
+      <c r="Z1662" s="14">
+        <v>1252028</v>
+      </c>
+      <c r="AA1662" s="14">
+        <v>1237859</v>
+      </c>
+      <c r="AB1662" s="14">
+        <v>1223689</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AF1532" xr:uid="{C1948D59-6AB8-4F5B-BB1B-6C7C538A772F}"/>
+  <autoFilter ref="A1:AF1662" xr:uid="{C1948D59-6AB8-4F5B-BB1B-6C7C538A772F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1536:E1583">
     <sortCondition ref="D1536:D1583"/>
   </sortState>
@@ -85030,4 +92194,784 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B030B-E9DA-485E-8722-93030B368493}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:A85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"Cantidad de extranjeros nacidos en "&amp;A1</f>
+        <v>Cantidad de extranjeros nacidos en Alemania</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">"Cantidad de extranjeros nacidos en "&amp;A2</f>
+        <v>Cantidad de extranjeros nacidos en Argentina</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Australia</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Austria</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Bélgica</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Bolivia</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Brasil</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Canadá</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en China</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Colombia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Costa Rica</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Cuba</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Ecuador</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en El Salvador</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Eslovenia</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en España</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Estados Unidos</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Filipinas</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Francia</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Grecia</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Guatemala</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Haití</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Holanda</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Honduras</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Hungría</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en India</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Indonesia</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Irlanda</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Italia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Japón</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Kenia</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Libia</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Marruecos</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en México</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en No bien especificado</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en No sabe o no responde</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Noruega</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Otro país de Asia</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Otro país de Europa</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Pakistán</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Panamá</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Paraguay</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Perú</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Polonia</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Portugal</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Reino Unido</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en República Dominicana</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Rumanía</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Rusia</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Serbia</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Siria</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Suecia</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Suiza</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Uruguay</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Venezuela</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Albania</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Corea del Sur</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Croacia</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Israel</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Jordania</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Kirguistán</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Líbano</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Nicaragua</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Nueva Zelanda</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Cantidad de extranjeros nacidos en Otro país de Africa</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B85" si="1">"Cantidad de extranjeros nacidos en "&amp;A66</f>
+        <v>Cantidad de extranjeros nacidos en Puerto Rico</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Tailandia</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Turquía</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Ucrania</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Angola</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Argelia</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Dinamarca</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Egipto</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Eslovaquia</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Etiopía</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Lituania</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Qatar</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en República Checa</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Finlandia</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Ghana</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Nigeria</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Palestina</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en República Democrática Del Congo</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Sri Lanka</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Cantidad de extranjeros nacidos en Sudáfrica</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tendencias DI/Cross DI.xlsx
+++ b/Tendencias DI/Cross DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tendencias DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0245CEE-3D37-4222-99AC-948A83089857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0B515-724C-49E4-A0E5-8DF52EA4517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{494430AA-323E-48A6-AB65-3B39C071EE0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13260" uniqueCount="3590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13460" uniqueCount="3644">
   <si>
     <t>Variable</t>
   </si>
@@ -10824,6 +10824,168 @@
   </si>
   <si>
     <t>DEMRE</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión de nacionalidad chilena</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión de nacionalidad extranjera</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión de sexo masculino</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión de sexo femenino</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuyo estado civil es soltero</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuyo estado civil es casado</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuyo estado civil es separado</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuyo estado civil es viudo</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Tarapacá</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Antofagasta</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Atacama</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Coquimbo</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Valparaíso</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es O'Higgins</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Maule</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Biobío</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es La Araucanía</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Los Lagos</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Aysén</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Magallanes</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Metropolitana</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Los Ríos</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inscritas en el proceso de admisión cuya región de domicilio es Ñuble</t>
+  </si>
+  <si>
+    <t>Proceso de Admisión</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Región de Domicilio</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Separado</t>
+  </si>
+  <si>
+    <t>Viudo</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>La Araucanía</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>Aysén</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalidad chilena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalidad extranjera </t>
+  </si>
+  <si>
+    <t>Sexo masculino</t>
+  </si>
+  <si>
+    <t>Sexo femenino</t>
+  </si>
+  <si>
+    <t>2012-2017</t>
+  </si>
+  <si>
+    <t>2012-2019</t>
   </si>
 </sst>
 </file>
@@ -11235,12 +11397,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1948D59-6AB8-4F5B-BB1B-6C7C538A772F}">
-  <dimension ref="A1:AF1720"/>
+  <dimension ref="A1:AF1750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1648" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1650" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A611" sqref="A611"/>
-      <selection pane="topRight" activeCell="C1667" sqref="C1667"/>
+      <selection pane="topRight" activeCell="A1671" sqref="A1671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92387,7 +92549,7 @@
     </row>
     <row r="1663" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
-        <v>3524</v>
+        <v>3590</v>
       </c>
       <c r="B1663" t="s">
         <v>62</v>
@@ -92396,45 +92558,57 @@
         <v>3582</v>
       </c>
       <c r="D1663" t="s">
-        <v>3583</v>
+        <v>3615</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>3615</v>
       </c>
       <c r="F1663" t="s">
         <v>3586</v>
       </c>
+      <c r="G1663" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1663" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1663" s="14"/>
+      <c r="R1663" s="14"/>
+      <c r="S1663" s="14"/>
+      <c r="T1663" s="14"/>
+      <c r="U1663" s="14"/>
+      <c r="V1663" s="14"/>
       <c r="W1663">
-        <v>12533</v>
+        <v>278791</v>
       </c>
       <c r="X1663">
-        <v>15240</v>
+        <v>279148</v>
       </c>
       <c r="Y1663">
-        <v>16316</v>
+        <v>277134</v>
       </c>
       <c r="Z1663">
-        <v>17017</v>
+        <v>288863</v>
       </c>
       <c r="AA1663">
-        <v>17319</v>
+        <v>298325</v>
       </c>
       <c r="AB1663">
-        <v>13077</v>
+        <v>298166</v>
       </c>
       <c r="AC1663">
-        <v>15816</v>
+        <v>304581</v>
       </c>
       <c r="AD1663">
-        <v>14761</v>
+        <v>304395</v>
       </c>
       <c r="AE1663">
-        <v>14187</v>
+        <v>306936</v>
       </c>
     </row>
     <row r="1664" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>3525</v>
+        <v>3591</v>
       </c>
       <c r="B1664" t="s">
         <v>62</v>
@@ -92443,30 +92617,48 @@
         <v>3582</v>
       </c>
       <c r="D1664" t="s">
-        <v>3584</v>
+        <v>3189</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>3638</v>
       </c>
       <c r="F1664" t="s">
         <v>3586</v>
       </c>
+      <c r="G1664" t="s">
+        <v>3642</v>
+      </c>
       <c r="J1664" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1664" s="14"/>
+      <c r="R1664" s="14"/>
+      <c r="S1664" s="14"/>
+      <c r="T1664" s="14"/>
+      <c r="U1664" s="14"/>
+      <c r="V1664" s="14"/>
+      <c r="W1664">
+        <v>277664</v>
+      </c>
+      <c r="X1664">
+        <v>277571</v>
+      </c>
+      <c r="Y1664">
+        <v>275187</v>
+      </c>
+      <c r="Z1664">
+        <v>286327</v>
+      </c>
+      <c r="AA1664">
+        <v>295875</v>
+      </c>
       <c r="AB1664">
-        <v>20102</v>
-      </c>
-      <c r="AC1664">
-        <v>29093</v>
-      </c>
-      <c r="AD1664">
-        <v>30637</v>
-      </c>
-      <c r="AE1664">
-        <v>37281</v>
+        <v>296908</v>
       </c>
     </row>
     <row r="1665" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>3526</v>
+        <v>3592</v>
       </c>
       <c r="B1665" t="s">
         <v>62</v>
@@ -92475,45 +92667,48 @@
         <v>3582</v>
       </c>
       <c r="D1665" t="s">
-        <v>3583</v>
+        <v>3189</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>3639</v>
       </c>
       <c r="F1665" t="s">
         <v>3586</v>
       </c>
+      <c r="G1665" t="s">
+        <v>3642</v>
+      </c>
       <c r="J1665" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1665" s="14"/>
+      <c r="R1665" s="14"/>
+      <c r="S1665" s="14"/>
+      <c r="T1665" s="14"/>
+      <c r="U1665" s="14"/>
+      <c r="V1665" s="14"/>
       <c r="W1665">
-        <v>12254</v>
+        <v>1127</v>
       </c>
       <c r="X1665">
-        <v>14861</v>
+        <v>1577</v>
       </c>
       <c r="Y1665">
-        <v>15919</v>
+        <v>1947</v>
       </c>
       <c r="Z1665">
-        <v>16647</v>
+        <v>2536</v>
       </c>
       <c r="AA1665">
-        <v>16841</v>
+        <v>2450</v>
       </c>
       <c r="AB1665">
-        <v>12719</v>
-      </c>
-      <c r="AC1665">
-        <v>15352</v>
-      </c>
-      <c r="AD1665">
-        <v>14383</v>
-      </c>
-      <c r="AE1665">
-        <v>13973</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1666" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1666" s="2" t="s">
-        <v>3581</v>
+      <c r="A1666" t="s">
+        <v>3593</v>
       </c>
       <c r="B1666" t="s">
         <v>62</v>
@@ -92522,45 +92717,57 @@
         <v>3582</v>
       </c>
       <c r="D1666" t="s">
-        <v>3583</v>
+        <v>924</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>3640</v>
       </c>
       <c r="F1666" t="s">
         <v>3586</v>
       </c>
+      <c r="G1666" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1666" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1666" s="14"/>
+      <c r="R1666" s="14"/>
+      <c r="S1666" s="14"/>
+      <c r="T1666" s="14"/>
+      <c r="U1666" s="14"/>
+      <c r="V1666" s="14"/>
       <c r="W1666">
-        <v>8337</v>
+        <v>132437</v>
       </c>
       <c r="X1666">
-        <v>9864</v>
+        <v>132957</v>
       </c>
       <c r="Y1666">
-        <v>10997</v>
+        <v>131735</v>
       </c>
       <c r="Z1666">
-        <v>11665</v>
+        <v>137437</v>
       </c>
       <c r="AA1666">
-        <v>11987</v>
+        <v>141525</v>
       </c>
       <c r="AB1666">
-        <v>8908</v>
+        <v>140773</v>
       </c>
       <c r="AC1666">
-        <v>11228</v>
+        <v>144085</v>
       </c>
       <c r="AD1666">
-        <v>10210</v>
+        <v>144151</v>
       </c>
       <c r="AE1666">
-        <v>9928</v>
+        <v>144845</v>
       </c>
     </row>
     <row r="1667" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>3527</v>
+        <v>3594</v>
       </c>
       <c r="B1667" t="s">
         <v>62</v>
@@ -92569,45 +92776,57 @@
         <v>3582</v>
       </c>
       <c r="D1667" t="s">
-        <v>2668</v>
+        <v>924</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>3641</v>
       </c>
       <c r="F1667" t="s">
         <v>3586</v>
       </c>
+      <c r="G1667" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1667" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1667" s="14"/>
+      <c r="R1667" s="14"/>
+      <c r="S1667" s="14"/>
+      <c r="T1667" s="14"/>
+      <c r="U1667" s="14"/>
+      <c r="V1667" s="14"/>
       <c r="W1667">
-        <v>106517</v>
+        <v>146354</v>
       </c>
       <c r="X1667">
-        <v>107322</v>
+        <v>146191</v>
       </c>
       <c r="Y1667">
-        <v>106525</v>
+        <v>145399</v>
       </c>
       <c r="Z1667">
-        <v>112603</v>
+        <v>151426</v>
       </c>
       <c r="AA1667">
-        <v>122789</v>
+        <v>156800</v>
       </c>
       <c r="AB1667">
-        <v>125621</v>
+        <v>157393</v>
       </c>
       <c r="AC1667">
-        <v>138086</v>
+        <v>160496</v>
       </c>
       <c r="AD1667">
-        <v>136557</v>
+        <v>160244</v>
       </c>
       <c r="AE1667">
-        <v>127510</v>
+        <v>162091</v>
       </c>
     </row>
     <row r="1668" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>3528</v>
+        <v>3595</v>
       </c>
       <c r="B1668" t="s">
         <v>62</v>
@@ -92616,45 +92835,54 @@
         <v>3582</v>
       </c>
       <c r="D1668" t="s">
-        <v>2668</v>
+        <v>3616</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>3618</v>
       </c>
       <c r="F1668" t="s">
         <v>3586</v>
       </c>
+      <c r="G1668" t="s">
+        <v>3643</v>
+      </c>
       <c r="J1668" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1668" s="14"/>
+      <c r="R1668" s="14"/>
+      <c r="S1668" s="14"/>
+      <c r="T1668" s="14"/>
+      <c r="U1668" s="14"/>
+      <c r="V1668" s="14"/>
       <c r="W1668">
-        <v>9579</v>
+        <v>273882</v>
       </c>
       <c r="X1668">
-        <v>10615</v>
+        <v>274380</v>
       </c>
       <c r="Y1668">
-        <v>12286</v>
+        <v>272406</v>
       </c>
       <c r="Z1668">
-        <v>12685</v>
+        <v>283664</v>
       </c>
       <c r="AA1668">
-        <v>18739</v>
+        <v>292727</v>
       </c>
       <c r="AB1668">
-        <v>20808</v>
+        <v>293957</v>
       </c>
       <c r="AC1668">
-        <v>20405</v>
+        <v>10798</v>
       </c>
       <c r="AD1668">
-        <v>17231</v>
-      </c>
-      <c r="AE1668">
-        <v>18507</v>
+        <v>297954</v>
       </c>
     </row>
     <row r="1669" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>3529</v>
+        <v>3596</v>
       </c>
       <c r="B1669" t="s">
         <v>62</v>
@@ -92663,30 +92891,54 @@
         <v>3582</v>
       </c>
       <c r="D1669" t="s">
-        <v>2668</v>
+        <v>3616</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>3619</v>
       </c>
       <c r="F1669" t="s">
         <v>3586</v>
       </c>
+      <c r="G1669" t="s">
+        <v>3643</v>
+      </c>
       <c r="J1669" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1669" s="14"/>
+      <c r="R1669" s="14"/>
+      <c r="S1669" s="14"/>
+      <c r="T1669" s="14"/>
+      <c r="U1669" s="14"/>
+      <c r="V1669" s="14"/>
+      <c r="W1669">
+        <v>3835</v>
+      </c>
+      <c r="X1669">
+        <v>3749</v>
+      </c>
+      <c r="Y1669">
+        <v>3662</v>
+      </c>
+      <c r="Z1669">
+        <v>3976</v>
+      </c>
+      <c r="AA1669">
+        <v>4289</v>
+      </c>
       <c r="AB1669">
-        <v>3258</v>
+        <v>3277</v>
       </c>
       <c r="AC1669">
-        <v>4365</v>
+        <v>287788</v>
       </c>
       <c r="AD1669">
-        <v>4546</v>
-      </c>
-      <c r="AE1669">
-        <v>5143</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1670" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>3530</v>
+        <v>3597</v>
       </c>
       <c r="B1670" t="s">
         <v>62</v>
@@ -92695,30 +92947,54 @@
         <v>3582</v>
       </c>
       <c r="D1670" t="s">
-        <v>2668</v>
+        <v>3616</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>3620</v>
       </c>
       <c r="F1670" t="s">
         <v>3586</v>
       </c>
+      <c r="G1670" t="s">
+        <v>3643</v>
+      </c>
       <c r="J1670" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1670" s="14"/>
+      <c r="R1670" s="14"/>
+      <c r="S1670" s="14"/>
+      <c r="T1670" s="14"/>
+      <c r="U1670" s="14"/>
+      <c r="V1670" s="14"/>
+      <c r="W1670">
+        <v>925</v>
+      </c>
+      <c r="X1670">
+        <v>871</v>
+      </c>
+      <c r="Y1670">
+        <v>907</v>
+      </c>
+      <c r="Z1670">
+        <v>1052</v>
+      </c>
+      <c r="AA1670">
+        <v>1124</v>
+      </c>
       <c r="AB1670">
-        <v>2054</v>
+        <v>818</v>
       </c>
       <c r="AC1670">
-        <v>6171</v>
+        <v>3273</v>
       </c>
       <c r="AD1670">
-        <v>2019</v>
-      </c>
-      <c r="AE1670">
-        <v>4851</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1671" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>3531</v>
+        <v>3598</v>
       </c>
       <c r="B1671" t="s">
         <v>62</v>
@@ -92727,45 +93003,54 @@
         <v>3582</v>
       </c>
       <c r="D1671" t="s">
-        <v>3585</v>
+        <v>3616</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>3621</v>
       </c>
       <c r="F1671" t="s">
         <v>3586</v>
       </c>
+      <c r="G1671" t="s">
+        <v>3643</v>
+      </c>
       <c r="J1671" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1671" s="14"/>
+      <c r="R1671" s="14"/>
+      <c r="S1671" s="14"/>
+      <c r="T1671" s="14"/>
+      <c r="U1671" s="14"/>
+      <c r="V1671" s="14"/>
       <c r="W1671">
-        <v>5121</v>
+        <v>149</v>
       </c>
       <c r="X1671">
-        <v>5090</v>
+        <v>148</v>
       </c>
       <c r="Y1671">
-        <v>5318</v>
+        <v>159</v>
       </c>
       <c r="Z1671">
-        <v>5493</v>
+        <v>171</v>
       </c>
       <c r="AA1671">
-        <v>5573</v>
+        <v>185</v>
       </c>
       <c r="AB1671">
-        <v>5703</v>
+        <v>114</v>
       </c>
       <c r="AC1671">
-        <v>6047</v>
+        <v>868</v>
       </c>
       <c r="AD1671">
-        <v>6068</v>
-      </c>
-      <c r="AE1671">
-        <v>5733</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1672" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>3532</v>
+        <v>3599</v>
       </c>
       <c r="B1672" t="s">
         <v>62</v>
@@ -92774,45 +93059,57 @@
         <v>3582</v>
       </c>
       <c r="D1672" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>3622</v>
       </c>
       <c r="F1672" t="s">
         <v>3586</v>
       </c>
+      <c r="G1672" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1672" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1672" s="14"/>
+      <c r="R1672" s="14"/>
+      <c r="S1672" s="14"/>
+      <c r="T1672" s="14"/>
+      <c r="U1672" s="14"/>
+      <c r="V1672" s="14"/>
       <c r="W1672">
-        <v>4477</v>
+        <v>4459</v>
       </c>
       <c r="X1672">
-        <v>4575</v>
+        <v>4544</v>
       </c>
       <c r="Y1672">
-        <v>4625</v>
+        <v>4560</v>
       </c>
       <c r="Z1672">
-        <v>4675</v>
+        <v>5009</v>
       </c>
       <c r="AA1672">
-        <v>4829</v>
+        <v>5253</v>
       </c>
       <c r="AB1672">
-        <v>5023</v>
+        <v>5280</v>
       </c>
       <c r="AC1672">
-        <v>5216</v>
+        <v>5723</v>
       </c>
       <c r="AD1672">
-        <v>5249</v>
+        <v>5642</v>
       </c>
       <c r="AE1672">
-        <v>5320</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="1673" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>3533</v>
+        <v>3600</v>
       </c>
       <c r="B1673" t="s">
         <v>62</v>
@@ -92821,45 +93118,57 @@
         <v>3582</v>
       </c>
       <c r="D1673" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>3623</v>
       </c>
       <c r="F1673" t="s">
         <v>3586</v>
       </c>
+      <c r="G1673" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1673" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1673" s="14"/>
+      <c r="R1673" s="14"/>
+      <c r="S1673" s="14"/>
+      <c r="T1673" s="14"/>
+      <c r="U1673" s="14"/>
+      <c r="V1673" s="14"/>
       <c r="W1673">
-        <v>4930</v>
+        <v>7734</v>
       </c>
       <c r="X1673">
-        <v>5171</v>
+        <v>7851</v>
       </c>
       <c r="Y1673">
-        <v>4826</v>
+        <v>8184</v>
       </c>
       <c r="Z1673">
-        <v>4932</v>
+        <v>8582</v>
       </c>
       <c r="AA1673">
-        <v>5063</v>
+        <v>9236</v>
       </c>
       <c r="AB1673">
-        <v>4924</v>
+        <v>9431</v>
       </c>
       <c r="AC1673">
-        <v>5247</v>
+        <v>9941</v>
       </c>
       <c r="AD1673">
-        <v>5042</v>
+        <v>9961</v>
       </c>
       <c r="AE1673">
-        <v>4921</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="1674" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
-        <v>3534</v>
+        <v>3601</v>
       </c>
       <c r="B1674" t="s">
         <v>62</v>
@@ -92868,45 +93177,57 @@
         <v>3582</v>
       </c>
       <c r="D1674" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>3624</v>
       </c>
       <c r="F1674" t="s">
         <v>3586</v>
       </c>
+      <c r="G1674" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1674" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1674" s="14"/>
+      <c r="R1674" s="14"/>
+      <c r="S1674" s="14"/>
+      <c r="T1674" s="14"/>
+      <c r="U1674" s="14"/>
+      <c r="V1674" s="14"/>
       <c r="W1674">
-        <v>2935</v>
+        <v>3568</v>
       </c>
       <c r="X1674">
-        <v>3117</v>
+        <v>3891</v>
       </c>
       <c r="Y1674">
-        <v>3056</v>
+        <v>3947</v>
       </c>
       <c r="Z1674">
-        <v>3081</v>
+        <v>4086</v>
       </c>
       <c r="AA1674">
-        <v>3241</v>
+        <v>4120</v>
       </c>
       <c r="AB1674">
-        <v>3345</v>
+        <v>4492</v>
       </c>
       <c r="AC1674">
-        <v>3449</v>
+        <v>4709</v>
       </c>
       <c r="AD1674">
-        <v>3511</v>
+        <v>4723</v>
       </c>
       <c r="AE1674">
-        <v>3270</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1675" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
-        <v>3535</v>
+        <v>3602</v>
       </c>
       <c r="B1675" t="s">
         <v>62</v>
@@ -92915,45 +93236,57 @@
         <v>3582</v>
       </c>
       <c r="D1675" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>3625</v>
       </c>
       <c r="F1675" t="s">
         <v>3586</v>
       </c>
+      <c r="G1675" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1675" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1675" s="14"/>
+      <c r="R1675" s="14"/>
+      <c r="S1675" s="14"/>
+      <c r="T1675" s="14"/>
+      <c r="U1675" s="14"/>
+      <c r="V1675" s="14"/>
       <c r="W1675">
-        <v>3672</v>
+        <v>11497</v>
       </c>
       <c r="X1675">
-        <v>3790</v>
+        <v>11329</v>
       </c>
       <c r="Y1675">
-        <v>3512</v>
+        <v>11246</v>
       </c>
       <c r="Z1675">
-        <v>3530</v>
+        <v>12065</v>
       </c>
       <c r="AA1675">
-        <v>3646</v>
+        <v>12551</v>
       </c>
       <c r="AB1675">
-        <v>3658</v>
+        <v>12797</v>
       </c>
       <c r="AC1675">
-        <v>3671</v>
+        <v>13197</v>
       </c>
       <c r="AD1675">
-        <v>3599</v>
+        <v>13373</v>
       </c>
       <c r="AE1675">
-        <v>3135</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="1676" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>3536</v>
+        <v>3603</v>
       </c>
       <c r="B1676" t="s">
         <v>62</v>
@@ -92962,45 +93295,57 @@
         <v>3582</v>
       </c>
       <c r="D1676" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>3626</v>
       </c>
       <c r="F1676" t="s">
         <v>3586</v>
       </c>
+      <c r="G1676" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1676" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1676" s="14"/>
+      <c r="R1676" s="14"/>
+      <c r="S1676" s="14"/>
+      <c r="T1676" s="14"/>
+      <c r="U1676" s="14"/>
+      <c r="V1676" s="14"/>
       <c r="W1676">
-        <v>4029</v>
+        <v>32098</v>
       </c>
       <c r="X1676">
-        <v>3819</v>
+        <v>31495</v>
       </c>
       <c r="Y1676">
-        <v>4006</v>
+        <v>31399</v>
       </c>
       <c r="Z1676">
-        <v>4267</v>
+        <v>33023</v>
       </c>
       <c r="AA1676">
-        <v>3744</v>
+        <v>32882</v>
       </c>
       <c r="AB1676">
-        <v>3868</v>
+        <v>32533</v>
       </c>
       <c r="AC1676">
-        <v>4228</v>
+        <v>32918</v>
       </c>
       <c r="AD1676">
-        <v>4322</v>
+        <v>32464</v>
       </c>
       <c r="AE1676">
-        <v>4716</v>
+        <v>32826</v>
       </c>
     </row>
     <row r="1677" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>3537</v>
+        <v>3604</v>
       </c>
       <c r="B1677" t="s">
         <v>62</v>
@@ -93009,45 +93354,57 @@
         <v>3582</v>
       </c>
       <c r="D1677" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>3627</v>
       </c>
       <c r="F1677" t="s">
         <v>3586</v>
       </c>
+      <c r="G1677" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1677" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1677" s="14"/>
+      <c r="R1677" s="14"/>
+      <c r="S1677" s="14"/>
+      <c r="T1677" s="14"/>
+      <c r="U1677" s="14"/>
+      <c r="V1677" s="14"/>
       <c r="W1677">
-        <v>2319</v>
+        <v>13536</v>
       </c>
       <c r="X1677">
-        <v>2620</v>
+        <v>13591</v>
       </c>
       <c r="Y1677">
-        <v>2803</v>
+        <v>13357</v>
       </c>
       <c r="Z1677">
-        <v>2858</v>
+        <v>14223</v>
       </c>
       <c r="AA1677">
-        <v>2774</v>
+        <v>14605</v>
       </c>
       <c r="AB1677">
-        <v>2960</v>
+        <v>15048</v>
       </c>
       <c r="AC1677">
-        <v>3156</v>
+        <v>15258</v>
       </c>
       <c r="AD1677">
-        <v>3351</v>
+        <v>15735</v>
       </c>
       <c r="AE1677">
-        <v>3337</v>
+        <v>15815</v>
       </c>
     </row>
     <row r="1678" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>3538</v>
+        <v>3605</v>
       </c>
       <c r="B1678" t="s">
         <v>62</v>
@@ -93056,45 +93413,57 @@
         <v>3582</v>
       </c>
       <c r="D1678" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>3628</v>
       </c>
       <c r="F1678" t="s">
         <v>3586</v>
       </c>
+      <c r="G1678" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1678" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1678" s="14"/>
+      <c r="R1678" s="14"/>
+      <c r="S1678" s="14"/>
+      <c r="T1678" s="14"/>
+      <c r="U1678" s="14"/>
+      <c r="V1678" s="14"/>
       <c r="W1678">
-        <v>1888</v>
+        <v>16570</v>
       </c>
       <c r="X1678">
-        <v>2016</v>
+        <v>16105</v>
       </c>
       <c r="Y1678">
-        <v>1963</v>
+        <v>16229</v>
       </c>
       <c r="Z1678">
-        <v>2070</v>
+        <v>16956</v>
       </c>
       <c r="AA1678">
-        <v>2168</v>
+        <v>17569</v>
       </c>
       <c r="AB1678">
-        <v>2126</v>
+        <v>17476</v>
       </c>
       <c r="AC1678">
-        <v>2206</v>
+        <v>17709</v>
       </c>
       <c r="AD1678">
-        <v>2163</v>
+        <v>17867</v>
       </c>
       <c r="AE1678">
-        <v>2006</v>
+        <v>18406</v>
       </c>
     </row>
     <row r="1679" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>3539</v>
+        <v>3606</v>
       </c>
       <c r="B1679" t="s">
         <v>62</v>
@@ -93103,45 +93472,57 @@
         <v>3582</v>
       </c>
       <c r="D1679" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>3629</v>
       </c>
       <c r="F1679" t="s">
         <v>3586</v>
       </c>
+      <c r="G1679" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1679" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1679" s="14"/>
+      <c r="R1679" s="14"/>
+      <c r="S1679" s="14"/>
+      <c r="T1679" s="14"/>
+      <c r="U1679" s="14"/>
+      <c r="V1679" s="14"/>
       <c r="W1679">
-        <v>3030</v>
+        <v>27932</v>
       </c>
       <c r="X1679">
-        <v>2940</v>
+        <v>27769</v>
       </c>
       <c r="Y1679">
-        <v>2772</v>
+        <v>26644</v>
       </c>
       <c r="Z1679">
-        <v>2965</v>
+        <v>28059</v>
       </c>
       <c r="AA1679">
-        <v>3349</v>
+        <v>29145</v>
       </c>
       <c r="AB1679">
-        <v>3341</v>
+        <v>28779</v>
       </c>
       <c r="AC1679">
-        <v>3424</v>
+        <v>29515</v>
       </c>
       <c r="AD1679">
-        <v>3403</v>
+        <v>29020</v>
       </c>
       <c r="AE1679">
-        <v>2926</v>
+        <v>29274</v>
       </c>
     </row>
     <row r="1680" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>3540</v>
+        <v>3607</v>
       </c>
       <c r="B1680" t="s">
         <v>62</v>
@@ -93150,45 +93531,57 @@
         <v>3582</v>
       </c>
       <c r="D1680" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>3630</v>
       </c>
       <c r="F1680" t="s">
         <v>3586</v>
       </c>
+      <c r="G1680" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1680" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1680" s="14"/>
+      <c r="R1680" s="14"/>
+      <c r="S1680" s="14"/>
+      <c r="T1680" s="14"/>
+      <c r="U1680" s="14"/>
+      <c r="V1680" s="14"/>
       <c r="W1680">
-        <v>936</v>
+        <v>15699</v>
       </c>
       <c r="X1680">
-        <v>1031</v>
+        <v>15178</v>
       </c>
       <c r="Y1680">
-        <v>985</v>
+        <v>14776</v>
       </c>
       <c r="Z1680">
-        <v>1087</v>
+        <v>15454</v>
       </c>
       <c r="AA1680">
-        <v>1018</v>
+        <v>15909</v>
       </c>
       <c r="AB1680">
-        <v>1079</v>
+        <v>15811</v>
       </c>
       <c r="AC1680">
-        <v>1207</v>
+        <v>16428</v>
       </c>
       <c r="AD1680">
-        <v>1050</v>
+        <v>16452</v>
       </c>
       <c r="AE1680">
-        <v>882</v>
+        <v>16809</v>
       </c>
     </row>
     <row r="1681" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
-        <v>3541</v>
+        <v>3608</v>
       </c>
       <c r="B1681" t="s">
         <v>62</v>
@@ -93197,45 +93590,57 @@
         <v>3582</v>
       </c>
       <c r="D1681" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>3631</v>
       </c>
       <c r="F1681" t="s">
         <v>3586</v>
       </c>
+      <c r="G1681" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1681" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1681" s="14"/>
+      <c r="R1681" s="14"/>
+      <c r="S1681" s="14"/>
+      <c r="T1681" s="14"/>
+      <c r="U1681" s="14"/>
+      <c r="V1681" s="14"/>
       <c r="W1681">
-        <v>1543</v>
+        <v>10918</v>
       </c>
       <c r="X1681">
-        <v>1673</v>
+        <v>11120</v>
       </c>
       <c r="Y1681">
-        <v>1816</v>
+        <v>11414</v>
       </c>
       <c r="Z1681">
-        <v>2037</v>
+        <v>12312</v>
       </c>
       <c r="AA1681">
-        <v>2188</v>
+        <v>12913</v>
       </c>
       <c r="AB1681">
-        <v>1997</v>
+        <v>13059</v>
       </c>
       <c r="AC1681">
-        <v>2144</v>
+        <v>13465</v>
       </c>
       <c r="AD1681">
-        <v>1737</v>
+        <v>13393</v>
       </c>
       <c r="AE1681">
-        <v>1684</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="1682" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>3542</v>
+        <v>3609</v>
       </c>
       <c r="B1682" t="s">
         <v>62</v>
@@ -93244,45 +93649,57 @@
         <v>3582</v>
       </c>
       <c r="D1682" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>3632</v>
       </c>
       <c r="F1682" t="s">
         <v>3586</v>
       </c>
+      <c r="G1682" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1682" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1682" s="14"/>
+      <c r="R1682" s="14"/>
+      <c r="S1682" s="14"/>
+      <c r="T1682" s="14"/>
+      <c r="U1682" s="14"/>
+      <c r="V1682" s="14"/>
       <c r="W1682">
-        <v>1391</v>
+        <v>1431</v>
       </c>
       <c r="X1682">
-        <v>1367</v>
+        <v>1598</v>
       </c>
       <c r="Y1682">
-        <v>1323</v>
+        <v>1591</v>
       </c>
       <c r="Z1682">
-        <v>1509</v>
+        <v>1806</v>
       </c>
       <c r="AA1682">
-        <v>1460</v>
+        <v>1686</v>
       </c>
       <c r="AB1682">
-        <v>1478</v>
+        <v>1846</v>
       </c>
       <c r="AC1682">
-        <v>1606</v>
+        <v>1785</v>
       </c>
       <c r="AD1682">
-        <v>1730</v>
+        <v>2043</v>
       </c>
       <c r="AE1682">
-        <v>1536</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1683" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>3543</v>
+        <v>3610</v>
       </c>
       <c r="B1683" t="s">
         <v>62</v>
@@ -93291,45 +93708,57 @@
         <v>3582</v>
       </c>
       <c r="D1683" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>3633</v>
       </c>
       <c r="F1683" t="s">
         <v>3586</v>
       </c>
+      <c r="G1683" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1683" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1683" s="14"/>
+      <c r="R1683" s="14"/>
+      <c r="S1683" s="14"/>
+      <c r="T1683" s="14"/>
+      <c r="U1683" s="14"/>
+      <c r="V1683" s="14"/>
       <c r="W1683">
-        <v>691</v>
+        <v>2255</v>
       </c>
       <c r="X1683">
-        <v>624</v>
+        <v>2426</v>
       </c>
       <c r="Y1683">
-        <v>889</v>
+        <v>2314</v>
       </c>
       <c r="Z1683">
-        <v>870</v>
+        <v>2461</v>
       </c>
       <c r="AA1683">
-        <v>936</v>
+        <v>2459</v>
       </c>
       <c r="AB1683">
-        <v>949</v>
+        <v>2406</v>
       </c>
       <c r="AC1683">
-        <v>1016</v>
+        <v>2538</v>
       </c>
       <c r="AD1683">
-        <v>946</v>
+        <v>2705</v>
       </c>
       <c r="AE1683">
-        <v>906</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1684" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>3544</v>
+        <v>3611</v>
       </c>
       <c r="B1684" t="s">
         <v>62</v>
@@ -93338,45 +93767,57 @@
         <v>3582</v>
       </c>
       <c r="D1684" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>3634</v>
       </c>
       <c r="F1684" t="s">
         <v>3586</v>
       </c>
+      <c r="G1684" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1684" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1684" s="14"/>
+      <c r="R1684" s="14"/>
+      <c r="S1684" s="14"/>
+      <c r="T1684" s="14"/>
+      <c r="U1684" s="14"/>
+      <c r="V1684" s="14"/>
       <c r="W1684">
-        <v>1063</v>
+        <v>113497</v>
       </c>
       <c r="X1684">
-        <v>1096</v>
+        <v>113751</v>
       </c>
       <c r="Y1684">
-        <v>1202</v>
+        <v>113354</v>
       </c>
       <c r="Z1684">
-        <v>1162</v>
+        <v>116119</v>
       </c>
       <c r="AA1684">
-        <v>1210</v>
+        <v>120854</v>
       </c>
       <c r="AB1684">
-        <v>1235</v>
+        <v>119794</v>
       </c>
       <c r="AC1684">
-        <v>1347</v>
+        <v>121572</v>
       </c>
       <c r="AD1684">
-        <v>1384</v>
+        <v>121393</v>
       </c>
       <c r="AE1684">
-        <v>1250</v>
+        <v>121228</v>
       </c>
     </row>
     <row r="1685" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>3545</v>
+        <v>3612</v>
       </c>
       <c r="B1685" t="s">
         <v>62</v>
@@ -93385,45 +93826,57 @@
         <v>3582</v>
       </c>
       <c r="D1685" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>3635</v>
       </c>
       <c r="F1685" t="s">
         <v>3586</v>
       </c>
+      <c r="G1685" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1685" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1685" s="14"/>
+      <c r="R1685" s="14"/>
+      <c r="S1685" s="14"/>
+      <c r="T1685" s="14"/>
+      <c r="U1685" s="14"/>
+      <c r="V1685" s="14"/>
       <c r="W1685">
-        <v>1459</v>
+        <v>6073</v>
       </c>
       <c r="X1685">
-        <v>1619</v>
+        <v>6534</v>
       </c>
       <c r="Y1685">
-        <v>1539</v>
+        <v>6566</v>
       </c>
       <c r="Z1685">
-        <v>1642</v>
+        <v>6826</v>
       </c>
       <c r="AA1685">
-        <v>1682</v>
+        <v>6747</v>
       </c>
       <c r="AB1685">
-        <v>1746</v>
+        <v>6780</v>
       </c>
       <c r="AC1685">
-        <v>1739</v>
+        <v>6988</v>
       </c>
       <c r="AD1685">
-        <v>1742</v>
+        <v>6948</v>
       </c>
       <c r="AE1685">
-        <v>1604</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="1686" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>3546</v>
+        <v>3613</v>
       </c>
       <c r="B1686" t="s">
         <v>62</v>
@@ -93432,45 +93885,57 @@
         <v>3582</v>
       </c>
       <c r="D1686" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>3636</v>
       </c>
       <c r="F1686" t="s">
         <v>3586</v>
       </c>
+      <c r="G1686" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1686" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1686" s="14"/>
+      <c r="R1686" s="14"/>
+      <c r="S1686" s="14"/>
+      <c r="T1686" s="14"/>
+      <c r="U1686" s="14"/>
+      <c r="V1686" s="14"/>
       <c r="W1686">
-        <v>1358</v>
+        <v>3810</v>
       </c>
       <c r="X1686">
-        <v>1343</v>
+        <v>3885</v>
       </c>
       <c r="Y1686">
-        <v>1341</v>
+        <v>3860</v>
       </c>
       <c r="Z1686">
-        <v>1638</v>
+        <v>4036</v>
       </c>
       <c r="AA1686">
-        <v>1709</v>
+        <v>4272</v>
       </c>
       <c r="AB1686">
-        <v>1626</v>
+        <v>4355</v>
       </c>
       <c r="AC1686">
-        <v>1636</v>
+        <v>4470</v>
       </c>
       <c r="AD1686">
-        <v>1412</v>
+        <v>4445</v>
       </c>
       <c r="AE1686">
-        <v>1088</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1687" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>3547</v>
+        <v>3614</v>
       </c>
       <c r="B1687" t="s">
         <v>62</v>
@@ -93479,280 +93944,132 @@
         <v>3582</v>
       </c>
       <c r="D1687" t="s">
-        <v>3585</v>
+        <v>3617</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>3637</v>
       </c>
       <c r="F1687" t="s">
         <v>3586</v>
       </c>
+      <c r="G1687" t="s">
+        <v>2642</v>
+      </c>
       <c r="J1687" t="s">
         <v>3589</v>
       </c>
+      <c r="Q1687" s="14"/>
+      <c r="R1687" s="14"/>
+      <c r="S1687" s="14"/>
+      <c r="T1687" s="14"/>
+      <c r="U1687" s="14"/>
+      <c r="V1687" s="14"/>
       <c r="W1687">
-        <v>609</v>
+        <v>7714</v>
       </c>
       <c r="X1687">
-        <v>782</v>
+        <v>8081</v>
       </c>
       <c r="Y1687">
-        <v>885</v>
+        <v>7691</v>
       </c>
       <c r="Z1687">
-        <v>960</v>
+        <v>7846</v>
       </c>
       <c r="AA1687">
-        <v>877</v>
+        <v>8124</v>
       </c>
       <c r="AB1687">
-        <v>939</v>
+        <v>8279</v>
       </c>
       <c r="AC1687">
-        <v>1024</v>
+        <v>8365</v>
       </c>
       <c r="AD1687">
-        <v>1050</v>
+        <v>8231</v>
       </c>
       <c r="AE1687">
-        <v>723</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="1688" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1688" t="s">
-        <v>3548</v>
-      </c>
-      <c r="B1688" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1688" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D1688" t="s">
-        <v>3585</v>
-      </c>
-      <c r="F1688" t="s">
-        <v>3586</v>
-      </c>
-      <c r="J1688" t="s">
-        <v>3589</v>
-      </c>
-      <c r="W1688">
-        <v>2132</v>
-      </c>
-      <c r="X1688">
-        <v>2255</v>
-      </c>
-      <c r="Y1688">
-        <v>2183</v>
-      </c>
-      <c r="Z1688">
-        <v>2299</v>
-      </c>
-      <c r="AA1688">
-        <v>2315</v>
-      </c>
-      <c r="AB1688">
-        <v>2382</v>
-      </c>
-      <c r="AC1688">
-        <v>2458</v>
-      </c>
-      <c r="AD1688">
-        <v>2462</v>
-      </c>
-      <c r="AE1688">
-        <v>2270</v>
-      </c>
+      <c r="A1688" s="2"/>
+      <c r="Q1688" s="14"/>
+      <c r="R1688" s="14"/>
+      <c r="S1688" s="14"/>
+      <c r="T1688" s="14"/>
+      <c r="U1688" s="14"/>
+      <c r="V1688" s="14"/>
+      <c r="W1688" s="14"/>
+      <c r="X1688" s="14"/>
+      <c r="Y1688" s="14"/>
+      <c r="Z1688" s="14"/>
+      <c r="AA1688" s="14"/>
+      <c r="AB1688" s="14"/>
     </row>
     <row r="1689" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1689" t="s">
-        <v>3549</v>
-      </c>
-      <c r="B1689" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1689" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D1689" t="s">
-        <v>3585</v>
-      </c>
-      <c r="F1689" t="s">
-        <v>3586</v>
-      </c>
-      <c r="J1689" t="s">
-        <v>3589</v>
-      </c>
-      <c r="W1689">
-        <v>1962</v>
-      </c>
-      <c r="X1689">
-        <v>1966</v>
-      </c>
-      <c r="Y1689">
-        <v>1972</v>
-      </c>
-      <c r="Z1689">
-        <v>2136</v>
-      </c>
-      <c r="AA1689">
-        <v>2185</v>
-      </c>
-      <c r="AB1689">
-        <v>2149</v>
-      </c>
-      <c r="AC1689">
-        <v>2209</v>
-      </c>
-      <c r="AD1689">
-        <v>2213</v>
-      </c>
-      <c r="AE1689">
-        <v>2110</v>
-      </c>
+      <c r="A1689" s="2"/>
+      <c r="Q1689" s="14"/>
+      <c r="R1689" s="14"/>
+      <c r="S1689" s="14"/>
+      <c r="T1689" s="14"/>
+      <c r="U1689" s="14"/>
+      <c r="V1689" s="14"/>
+      <c r="W1689" s="14"/>
+      <c r="X1689" s="14"/>
+      <c r="Y1689" s="14"/>
+      <c r="Z1689" s="14"/>
+      <c r="AA1689" s="14"/>
+      <c r="AB1689" s="14"/>
     </row>
     <row r="1690" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1690" t="s">
-        <v>3550</v>
-      </c>
-      <c r="B1690" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1690" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D1690" t="s">
-        <v>3585</v>
-      </c>
-      <c r="F1690" t="s">
-        <v>3586</v>
-      </c>
-      <c r="J1690" t="s">
-        <v>3589</v>
-      </c>
-      <c r="W1690">
-        <v>512</v>
-      </c>
-      <c r="X1690">
-        <v>647</v>
-      </c>
-      <c r="Y1690">
-        <v>789</v>
-      </c>
-      <c r="Z1690">
-        <v>824</v>
-      </c>
-      <c r="AA1690">
-        <v>931</v>
-      </c>
-      <c r="AB1690">
-        <v>1025</v>
-      </c>
-      <c r="AC1690">
-        <v>1063</v>
-      </c>
-      <c r="AD1690">
-        <v>1128</v>
-      </c>
-      <c r="AE1690">
-        <v>1067</v>
-      </c>
+      <c r="A1690" s="2"/>
+      <c r="Q1690" s="14"/>
+      <c r="R1690" s="14"/>
+      <c r="S1690" s="14"/>
+      <c r="T1690" s="14"/>
+      <c r="U1690" s="14"/>
+      <c r="V1690" s="14"/>
+      <c r="W1690" s="14"/>
+      <c r="X1690" s="14"/>
+      <c r="Y1690" s="14"/>
+      <c r="Z1690" s="14"/>
+      <c r="AA1690" s="14"/>
+      <c r="AB1690" s="14"/>
     </row>
     <row r="1691" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1691" t="s">
-        <v>3551</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1691" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D1691" t="s">
-        <v>3585</v>
-      </c>
-      <c r="F1691" t="s">
-        <v>3586</v>
-      </c>
-      <c r="J1691" t="s">
-        <v>3589</v>
-      </c>
-      <c r="W1691">
-        <v>388</v>
-      </c>
-      <c r="X1691">
-        <v>369</v>
-      </c>
-      <c r="Y1691">
-        <v>424</v>
-      </c>
-      <c r="Z1691">
-        <v>547</v>
-      </c>
-      <c r="AA1691">
-        <v>577</v>
-      </c>
-      <c r="AB1691">
-        <v>570</v>
-      </c>
-      <c r="AC1691">
-        <v>513</v>
-      </c>
-      <c r="AD1691">
-        <v>544</v>
-      </c>
-      <c r="AE1691">
-        <v>473</v>
-      </c>
+      <c r="A1691" s="2"/>
+      <c r="Q1691" s="14"/>
+      <c r="R1691" s="14"/>
+      <c r="S1691" s="14"/>
+      <c r="T1691" s="14"/>
+      <c r="U1691" s="14"/>
+      <c r="V1691" s="14"/>
+      <c r="W1691" s="14"/>
+      <c r="X1691" s="14"/>
+      <c r="Y1691" s="14"/>
+      <c r="Z1691" s="14"/>
+      <c r="AA1691" s="14"/>
+      <c r="AB1691" s="14"/>
     </row>
     <row r="1692" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1692" t="s">
-        <v>3552</v>
-      </c>
-      <c r="B1692" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1692" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D1692" t="s">
-        <v>3585</v>
-      </c>
-      <c r="F1692" t="s">
-        <v>3586</v>
-      </c>
-      <c r="J1692" t="s">
-        <v>3589</v>
-      </c>
-      <c r="W1692">
-        <v>1651</v>
-      </c>
-      <c r="X1692">
-        <v>2032</v>
-      </c>
-      <c r="Y1692">
-        <v>1681</v>
-      </c>
-      <c r="Z1692">
-        <v>1810</v>
-      </c>
-      <c r="AA1692">
-        <v>1855</v>
-      </c>
-      <c r="AB1692">
-        <v>1859</v>
-      </c>
-      <c r="AC1692">
-        <v>2174</v>
-      </c>
-      <c r="AD1692">
-        <v>2015</v>
-      </c>
-      <c r="AE1692">
-        <v>2007</v>
-      </c>
+      <c r="A1692" s="2"/>
+      <c r="Q1692" s="14"/>
+      <c r="R1692" s="14"/>
+      <c r="S1692" s="14"/>
+      <c r="T1692" s="14"/>
+      <c r="U1692" s="14"/>
+      <c r="V1692" s="14"/>
+      <c r="W1692" s="14"/>
+      <c r="X1692" s="14"/>
+      <c r="Y1692" s="14"/>
+      <c r="Z1692" s="14"/>
+      <c r="AA1692" s="14"/>
+      <c r="AB1692" s="14"/>
     </row>
     <row r="1693" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>3553</v>
+        <v>3524</v>
       </c>
       <c r="B1693" t="s">
         <v>62</v>
@@ -93761,7 +94078,7 @@
         <v>3582</v>
       </c>
       <c r="D1693" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="F1693" t="s">
         <v>3586</v>
@@ -93770,36 +94087,36 @@
         <v>3589</v>
       </c>
       <c r="W1693">
-        <v>1189</v>
+        <v>12533</v>
       </c>
       <c r="X1693">
-        <v>1264</v>
+        <v>15240</v>
       </c>
       <c r="Y1693">
-        <v>1257</v>
+        <v>16316</v>
       </c>
       <c r="Z1693">
-        <v>1326</v>
+        <v>17017</v>
       </c>
       <c r="AA1693">
-        <v>1557</v>
+        <v>17319</v>
       </c>
       <c r="AB1693">
-        <v>1755</v>
+        <v>13077</v>
       </c>
       <c r="AC1693">
-        <v>1984</v>
+        <v>15816</v>
       </c>
       <c r="AD1693">
-        <v>2262</v>
+        <v>14761</v>
       </c>
       <c r="AE1693">
-        <v>2262</v>
+        <v>14187</v>
       </c>
     </row>
     <row r="1694" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>3554</v>
+        <v>3525</v>
       </c>
       <c r="B1694" t="s">
         <v>62</v>
@@ -93808,7 +94125,7 @@
         <v>3582</v>
       </c>
       <c r="D1694" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="F1694" t="s">
         <v>3586</v>
@@ -93816,37 +94133,22 @@
       <c r="J1694" t="s">
         <v>3589</v>
       </c>
-      <c r="W1694">
-        <v>1720</v>
-      </c>
-      <c r="X1694">
-        <v>1490</v>
-      </c>
-      <c r="Y1694">
-        <v>1680</v>
-      </c>
-      <c r="Z1694">
-        <v>1807</v>
-      </c>
-      <c r="AA1694">
-        <v>1962</v>
-      </c>
       <c r="AB1694">
-        <v>1881</v>
+        <v>20102</v>
       </c>
       <c r="AC1694">
-        <v>1959</v>
+        <v>29093</v>
       </c>
       <c r="AD1694">
-        <v>1987</v>
+        <v>30637</v>
       </c>
       <c r="AE1694">
-        <v>1758</v>
+        <v>37281</v>
       </c>
     </row>
     <row r="1695" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>3555</v>
+        <v>3526</v>
       </c>
       <c r="B1695" t="s">
         <v>62</v>
@@ -93855,7 +94157,7 @@
         <v>3582</v>
       </c>
       <c r="D1695" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="F1695" t="s">
         <v>3586</v>
@@ -93864,36 +94166,36 @@
         <v>3589</v>
       </c>
       <c r="W1695">
-        <v>1591</v>
+        <v>12254</v>
       </c>
       <c r="X1695">
-        <v>1731</v>
+        <v>14861</v>
       </c>
       <c r="Y1695">
-        <v>1642</v>
+        <v>15919</v>
       </c>
       <c r="Z1695">
-        <v>1851</v>
+        <v>16647</v>
       </c>
       <c r="AA1695">
-        <v>2115</v>
+        <v>16841</v>
       </c>
       <c r="AB1695">
-        <v>2119</v>
+        <v>12719</v>
       </c>
       <c r="AC1695">
-        <v>2244</v>
+        <v>15352</v>
       </c>
       <c r="AD1695">
-        <v>2222</v>
+        <v>14383</v>
       </c>
       <c r="AE1695">
-        <v>2020</v>
+        <v>13973</v>
       </c>
     </row>
     <row r="1696" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1696" t="s">
-        <v>3556</v>
+      <c r="A1696" s="2" t="s">
+        <v>3581</v>
       </c>
       <c r="B1696" t="s">
         <v>62</v>
@@ -93902,7 +94204,7 @@
         <v>3582</v>
       </c>
       <c r="D1696" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="F1696" t="s">
         <v>3586</v>
@@ -93911,36 +94213,36 @@
         <v>3589</v>
       </c>
       <c r="W1696">
-        <v>2388</v>
+        <v>8337</v>
       </c>
       <c r="X1696">
-        <v>2596</v>
+        <v>9864</v>
       </c>
       <c r="Y1696">
-        <v>2732</v>
+        <v>10997</v>
       </c>
       <c r="Z1696">
-        <v>2812</v>
+        <v>11665</v>
       </c>
       <c r="AA1696">
-        <v>2976</v>
+        <v>11987</v>
       </c>
       <c r="AB1696">
-        <v>2914</v>
+        <v>8908</v>
       </c>
       <c r="AC1696">
-        <v>3099</v>
+        <v>11228</v>
       </c>
       <c r="AD1696">
-        <v>3240</v>
+        <v>10210</v>
       </c>
       <c r="AE1696">
-        <v>3182</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="1697" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>3557</v>
+        <v>3527</v>
       </c>
       <c r="B1697" t="s">
         <v>62</v>
@@ -93949,7 +94251,7 @@
         <v>3582</v>
       </c>
       <c r="D1697" t="s">
-        <v>3585</v>
+        <v>2668</v>
       </c>
       <c r="F1697" t="s">
         <v>3586</v>
@@ -93958,36 +94260,36 @@
         <v>3589</v>
       </c>
       <c r="W1697">
-        <v>2905</v>
+        <v>106517</v>
       </c>
       <c r="X1697">
-        <v>2990</v>
+        <v>107322</v>
       </c>
       <c r="Y1697">
-        <v>3112</v>
+        <v>106525</v>
       </c>
       <c r="Z1697">
-        <v>3007</v>
+        <v>112603</v>
       </c>
       <c r="AA1697">
-        <v>3041</v>
+        <v>122789</v>
       </c>
       <c r="AB1697">
-        <v>2882</v>
+        <v>125621</v>
       </c>
       <c r="AC1697">
-        <v>2556</v>
+        <v>138086</v>
       </c>
       <c r="AD1697">
-        <v>2907</v>
+        <v>136557</v>
       </c>
       <c r="AE1697">
-        <v>2877</v>
+        <v>127510</v>
       </c>
     </row>
     <row r="1698" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>3558</v>
+        <v>3528</v>
       </c>
       <c r="B1698" t="s">
         <v>62</v>
@@ -93996,7 +94298,7 @@
         <v>3582</v>
       </c>
       <c r="D1698" t="s">
-        <v>3585</v>
+        <v>2668</v>
       </c>
       <c r="F1698" t="s">
         <v>3586</v>
@@ -94005,36 +94307,36 @@
         <v>3589</v>
       </c>
       <c r="W1698">
-        <v>769</v>
+        <v>9579</v>
       </c>
       <c r="X1698">
-        <v>858</v>
+        <v>10615</v>
       </c>
       <c r="Y1698">
-        <v>934</v>
+        <v>12286</v>
       </c>
       <c r="Z1698">
-        <v>1149</v>
+        <v>12685</v>
       </c>
       <c r="AA1698">
-        <v>1420</v>
+        <v>18739</v>
       </c>
       <c r="AB1698">
-        <v>1458</v>
+        <v>20808</v>
       </c>
       <c r="AC1698">
-        <v>1634</v>
+        <v>20405</v>
       </c>
       <c r="AD1698">
-        <v>1575</v>
+        <v>17231</v>
       </c>
       <c r="AE1698">
-        <v>1495</v>
+        <v>18507</v>
       </c>
     </row>
     <row r="1699" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>3559</v>
+        <v>3529</v>
       </c>
       <c r="B1699" t="s">
         <v>62</v>
@@ -94043,7 +94345,7 @@
         <v>3582</v>
       </c>
       <c r="D1699" t="s">
-        <v>3585</v>
+        <v>2668</v>
       </c>
       <c r="F1699" t="s">
         <v>3586</v>
@@ -94051,37 +94353,22 @@
       <c r="J1699" t="s">
         <v>3589</v>
       </c>
-      <c r="W1699">
-        <v>7148</v>
-      </c>
-      <c r="X1699">
-        <v>8363</v>
-      </c>
-      <c r="Y1699">
-        <v>8988</v>
-      </c>
-      <c r="Z1699">
-        <v>7932</v>
-      </c>
-      <c r="AA1699">
-        <v>8354</v>
-      </c>
       <c r="AB1699">
-        <v>7183</v>
+        <v>3258</v>
       </c>
       <c r="AC1699">
-        <v>8229</v>
+        <v>4365</v>
       </c>
       <c r="AD1699">
-        <v>9088</v>
+        <v>4546</v>
       </c>
       <c r="AE1699">
-        <v>7984</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1700" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>3560</v>
+        <v>3530</v>
       </c>
       <c r="B1700" t="s">
         <v>62</v>
@@ -94090,7 +94377,7 @@
         <v>3582</v>
       </c>
       <c r="D1700" t="s">
-        <v>3585</v>
+        <v>2668</v>
       </c>
       <c r="F1700" t="s">
         <v>3586</v>
@@ -94098,37 +94385,22 @@
       <c r="J1700" t="s">
         <v>3589</v>
       </c>
-      <c r="W1700">
-        <v>1746</v>
-      </c>
-      <c r="X1700">
-        <v>1697</v>
-      </c>
-      <c r="Y1700">
-        <v>1747</v>
-      </c>
-      <c r="Z1700">
-        <v>1695</v>
-      </c>
-      <c r="AA1700">
-        <v>1738</v>
-      </c>
       <c r="AB1700">
-        <v>1693</v>
+        <v>2054</v>
       </c>
       <c r="AC1700">
-        <v>1697</v>
+        <v>6171</v>
       </c>
       <c r="AD1700">
-        <v>1733</v>
+        <v>2019</v>
       </c>
       <c r="AE1700">
-        <v>1679</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="1701" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>3561</v>
+        <v>3531</v>
       </c>
       <c r="B1701" t="s">
         <v>62</v>
@@ -94146,36 +94418,36 @@
         <v>3589</v>
       </c>
       <c r="W1701">
-        <v>1152</v>
+        <v>5121</v>
       </c>
       <c r="X1701">
-        <v>1319</v>
+        <v>5090</v>
       </c>
       <c r="Y1701">
-        <v>1466</v>
+        <v>5318</v>
       </c>
       <c r="Z1701">
-        <v>1496</v>
+        <v>5493</v>
       </c>
       <c r="AA1701">
-        <v>1442</v>
+        <v>5573</v>
       </c>
       <c r="AB1701">
-        <v>1525</v>
+        <v>5703</v>
       </c>
       <c r="AC1701">
-        <v>1492</v>
+        <v>6047</v>
       </c>
       <c r="AD1701">
-        <v>1495</v>
+        <v>6068</v>
       </c>
       <c r="AE1701">
-        <v>1554</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="1702" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>3562</v>
+        <v>3532</v>
       </c>
       <c r="B1702" t="s">
         <v>62</v>
@@ -94193,36 +94465,36 @@
         <v>3589</v>
       </c>
       <c r="W1702">
-        <v>2441</v>
+        <v>4477</v>
       </c>
       <c r="X1702">
-        <v>2428</v>
+        <v>4575</v>
       </c>
       <c r="Y1702">
-        <v>2518</v>
+        <v>4625</v>
       </c>
       <c r="Z1702">
-        <v>2627</v>
+        <v>4675</v>
       </c>
       <c r="AA1702">
-        <v>2559</v>
+        <v>4829</v>
       </c>
       <c r="AB1702">
-        <v>2591</v>
+        <v>5023</v>
       </c>
       <c r="AC1702">
-        <v>2495</v>
+        <v>5216</v>
       </c>
       <c r="AD1702">
-        <v>2498</v>
+        <v>5249</v>
       </c>
       <c r="AE1702">
-        <v>2617</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1703" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>3563</v>
+        <v>3533</v>
       </c>
       <c r="B1703" t="s">
         <v>62</v>
@@ -94240,36 +94512,36 @@
         <v>3589</v>
       </c>
       <c r="W1703">
-        <v>1136</v>
+        <v>4930</v>
       </c>
       <c r="X1703">
-        <v>1204</v>
+        <v>5171</v>
       </c>
       <c r="Y1703">
-        <v>1220</v>
+        <v>4826</v>
       </c>
       <c r="Z1703">
-        <v>1401</v>
+        <v>4932</v>
       </c>
       <c r="AA1703">
-        <v>1596</v>
+        <v>5063</v>
       </c>
       <c r="AB1703">
-        <v>1537</v>
+        <v>4924</v>
       </c>
       <c r="AC1703">
-        <v>1591</v>
+        <v>5247</v>
       </c>
       <c r="AD1703">
-        <v>1582</v>
+        <v>5042</v>
       </c>
       <c r="AE1703">
-        <v>1433</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="1704" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>3564</v>
+        <v>3534</v>
       </c>
       <c r="B1704" t="s">
         <v>62</v>
@@ -94286,22 +94558,37 @@
       <c r="J1704" t="s">
         <v>3589</v>
       </c>
+      <c r="W1704">
+        <v>2935</v>
+      </c>
+      <c r="X1704">
+        <v>3117</v>
+      </c>
+      <c r="Y1704">
+        <v>3056</v>
+      </c>
+      <c r="Z1704">
+        <v>3081</v>
+      </c>
+      <c r="AA1704">
+        <v>3241</v>
+      </c>
       <c r="AB1704">
-        <v>1301</v>
+        <v>3345</v>
       </c>
       <c r="AC1704">
-        <v>1501</v>
+        <v>3449</v>
       </c>
       <c r="AD1704">
-        <v>1562</v>
+        <v>3511</v>
       </c>
       <c r="AE1704">
-        <v>1508</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1705" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>3565</v>
+        <v>3535</v>
       </c>
       <c r="B1705" t="s">
         <v>62</v>
@@ -94318,22 +94605,37 @@
       <c r="J1705" t="s">
         <v>3589</v>
       </c>
+      <c r="W1705">
+        <v>3672</v>
+      </c>
+      <c r="X1705">
+        <v>3790</v>
+      </c>
+      <c r="Y1705">
+        <v>3512</v>
+      </c>
+      <c r="Z1705">
+        <v>3530</v>
+      </c>
+      <c r="AA1705">
+        <v>3646</v>
+      </c>
       <c r="AB1705">
-        <v>397</v>
+        <v>3658</v>
       </c>
       <c r="AC1705">
-        <v>872</v>
+        <v>3671</v>
       </c>
       <c r="AD1705">
-        <v>1042</v>
+        <v>3599</v>
       </c>
       <c r="AE1705">
-        <v>1122</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1706" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>3566</v>
+        <v>3536</v>
       </c>
       <c r="B1706" t="s">
         <v>62</v>
@@ -94350,22 +94652,37 @@
       <c r="J1706" t="s">
         <v>3589</v>
       </c>
+      <c r="W1706">
+        <v>4029</v>
+      </c>
+      <c r="X1706">
+        <v>3819</v>
+      </c>
+      <c r="Y1706">
+        <v>4006</v>
+      </c>
+      <c r="Z1706">
+        <v>4267</v>
+      </c>
+      <c r="AA1706">
+        <v>3744</v>
+      </c>
       <c r="AB1706">
-        <v>65</v>
+        <v>3868</v>
       </c>
       <c r="AC1706">
-        <v>89</v>
+        <v>4228</v>
       </c>
       <c r="AD1706">
-        <v>98</v>
+        <v>4322</v>
       </c>
       <c r="AE1706">
-        <v>120</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1707" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>3567</v>
+        <v>3537</v>
       </c>
       <c r="B1707" t="s">
         <v>62</v>
@@ -94382,19 +94699,37 @@
       <c r="J1707" t="s">
         <v>3589</v>
       </c>
+      <c r="W1707">
+        <v>2319</v>
+      </c>
+      <c r="X1707">
+        <v>2620</v>
+      </c>
+      <c r="Y1707">
+        <v>2803</v>
+      </c>
+      <c r="Z1707">
+        <v>2858</v>
+      </c>
+      <c r="AA1707">
+        <v>2774</v>
+      </c>
+      <c r="AB1707">
+        <v>2960</v>
+      </c>
       <c r="AC1707">
-        <v>5555</v>
+        <v>3156</v>
       </c>
       <c r="AD1707">
-        <v>5651</v>
+        <v>3351</v>
       </c>
       <c r="AE1707">
-        <v>5762</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1708" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>3568</v>
+        <v>3538</v>
       </c>
       <c r="B1708" t="s">
         <v>62</v>
@@ -94411,19 +94746,37 @@
       <c r="J1708" t="s">
         <v>3589</v>
       </c>
+      <c r="W1708">
+        <v>1888</v>
+      </c>
+      <c r="X1708">
+        <v>2016</v>
+      </c>
+      <c r="Y1708">
+        <v>1963</v>
+      </c>
+      <c r="Z1708">
+        <v>2070</v>
+      </c>
+      <c r="AA1708">
+        <v>2168</v>
+      </c>
+      <c r="AB1708">
+        <v>2126</v>
+      </c>
       <c r="AC1708">
-        <v>5461</v>
+        <v>2206</v>
       </c>
       <c r="AD1708">
-        <v>5083</v>
+        <v>2163</v>
       </c>
       <c r="AE1708">
-        <v>4669</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1709" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>3569</v>
+        <v>3539</v>
       </c>
       <c r="B1709" t="s">
         <v>62</v>
@@ -94440,19 +94793,37 @@
       <c r="J1709" t="s">
         <v>3589</v>
       </c>
+      <c r="W1709">
+        <v>3030</v>
+      </c>
+      <c r="X1709">
+        <v>2940</v>
+      </c>
+      <c r="Y1709">
+        <v>2772</v>
+      </c>
+      <c r="Z1709">
+        <v>2965</v>
+      </c>
+      <c r="AA1709">
+        <v>3349</v>
+      </c>
+      <c r="AB1709">
+        <v>3341</v>
+      </c>
       <c r="AC1709">
-        <v>2155</v>
+        <v>3424</v>
       </c>
       <c r="AD1709">
-        <v>2108</v>
+        <v>3403</v>
       </c>
       <c r="AE1709">
-        <v>1748</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1710" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>3570</v>
+        <v>3540</v>
       </c>
       <c r="B1710" t="s">
         <v>62</v>
@@ -94469,16 +94840,37 @@
       <c r="J1710" t="s">
         <v>3589</v>
       </c>
+      <c r="W1710">
+        <v>936</v>
+      </c>
+      <c r="X1710">
+        <v>1031</v>
+      </c>
+      <c r="Y1710">
+        <v>985</v>
+      </c>
+      <c r="Z1710">
+        <v>1087</v>
+      </c>
+      <c r="AA1710">
+        <v>1018</v>
+      </c>
+      <c r="AB1710">
+        <v>1079</v>
+      </c>
+      <c r="AC1710">
+        <v>1207</v>
+      </c>
       <c r="AD1710">
-        <v>710</v>
+        <v>1050</v>
       </c>
       <c r="AE1710">
-        <v>687</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1711" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>3571</v>
+        <v>3541</v>
       </c>
       <c r="B1711" t="s">
         <v>62</v>
@@ -94495,16 +94887,37 @@
       <c r="J1711" t="s">
         <v>3589</v>
       </c>
+      <c r="W1711">
+        <v>1543</v>
+      </c>
+      <c r="X1711">
+        <v>1673</v>
+      </c>
+      <c r="Y1711">
+        <v>1816</v>
+      </c>
+      <c r="Z1711">
+        <v>2037</v>
+      </c>
+      <c r="AA1711">
+        <v>2188</v>
+      </c>
+      <c r="AB1711">
+        <v>1997</v>
+      </c>
+      <c r="AC1711">
+        <v>2144</v>
+      </c>
       <c r="AD1711">
-        <v>1019</v>
+        <v>1737</v>
       </c>
       <c r="AE1711">
-        <v>861</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1712" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>3572</v>
+        <v>3542</v>
       </c>
       <c r="B1712" t="s">
         <v>62</v>
@@ -94516,42 +94929,42 @@
         <v>3585</v>
       </c>
       <c r="F1712" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="J1712" t="s">
         <v>3589</v>
       </c>
       <c r="W1712">
-        <v>739</v>
+        <v>1391</v>
       </c>
       <c r="X1712">
-        <v>894</v>
+        <v>1367</v>
       </c>
       <c r="Y1712">
-        <v>930</v>
+        <v>1323</v>
       </c>
       <c r="Z1712">
-        <v>993</v>
+        <v>1509</v>
       </c>
       <c r="AA1712">
-        <v>1000</v>
+        <v>1460</v>
       </c>
       <c r="AB1712">
-        <v>842</v>
+        <v>1478</v>
       </c>
       <c r="AC1712">
-        <v>970</v>
+        <v>1606</v>
       </c>
       <c r="AD1712">
-        <v>851</v>
+        <v>1730</v>
       </c>
       <c r="AE1712">
-        <v>708</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1713" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
-        <v>3573</v>
+        <v>3543</v>
       </c>
       <c r="B1713" t="s">
         <v>62</v>
@@ -94563,42 +94976,42 @@
         <v>3585</v>
       </c>
       <c r="F1713" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="J1713" t="s">
         <v>3589</v>
       </c>
       <c r="W1713">
-        <v>71542</v>
+        <v>691</v>
       </c>
       <c r="X1713">
-        <v>74988</v>
+        <v>624</v>
       </c>
       <c r="Y1713">
-        <v>76276</v>
+        <v>889</v>
       </c>
       <c r="Z1713">
-        <v>78502</v>
+        <v>870</v>
       </c>
       <c r="AA1713">
-        <v>80623</v>
+        <v>936</v>
       </c>
       <c r="AB1713">
-        <v>80714</v>
+        <v>949</v>
       </c>
       <c r="AC1713">
-        <v>98210</v>
+        <v>1016</v>
       </c>
       <c r="AD1713">
-        <v>100879</v>
+        <v>946</v>
       </c>
       <c r="AE1713">
-        <v>95819</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1714" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
-        <v>3574</v>
+        <v>3544</v>
       </c>
       <c r="B1714" t="s">
         <v>62</v>
@@ -94610,30 +95023,42 @@
         <v>3585</v>
       </c>
       <c r="F1714" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="J1714" t="s">
         <v>3589</v>
       </c>
+      <c r="W1714">
+        <v>1063</v>
+      </c>
+      <c r="X1714">
+        <v>1096</v>
+      </c>
+      <c r="Y1714">
+        <v>1202</v>
+      </c>
+      <c r="Z1714">
+        <v>1162</v>
+      </c>
       <c r="AA1714">
-        <v>467</v>
+        <v>1210</v>
       </c>
       <c r="AB1714">
-        <v>1928</v>
+        <v>1235</v>
       </c>
       <c r="AC1714">
-        <v>2213</v>
+        <v>1347</v>
       </c>
       <c r="AD1714">
-        <v>2253</v>
+        <v>1384</v>
       </c>
       <c r="AE1714">
-        <v>1775</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1715" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>3575</v>
+        <v>3545</v>
       </c>
       <c r="B1715" t="s">
         <v>62</v>
@@ -94645,39 +95070,42 @@
         <v>3585</v>
       </c>
       <c r="F1715" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="J1715" t="s">
         <v>3589</v>
       </c>
       <c r="W1715">
-        <v>69559</v>
+        <v>1459</v>
       </c>
       <c r="X1715">
-        <v>72969</v>
+        <v>1619</v>
       </c>
       <c r="Y1715">
-        <v>74221</v>
+        <v>1539</v>
       </c>
       <c r="Z1715">
-        <v>76620</v>
+        <v>1642</v>
       </c>
       <c r="AA1715">
-        <v>78760</v>
+        <v>1682</v>
       </c>
       <c r="AB1715">
-        <v>80784</v>
+        <v>1746</v>
       </c>
       <c r="AC1715">
-        <v>96426</v>
+        <v>1739</v>
       </c>
       <c r="AD1715">
-        <v>101036</v>
+        <v>1742</v>
+      </c>
+      <c r="AE1715">
+        <v>1604</v>
       </c>
     </row>
     <row r="1716" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>3576</v>
+        <v>3546</v>
       </c>
       <c r="B1716" t="s">
         <v>62</v>
@@ -94689,39 +95117,42 @@
         <v>3585</v>
       </c>
       <c r="F1716" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="J1716" t="s">
         <v>3589</v>
       </c>
       <c r="W1716">
-        <v>1605</v>
+        <v>1358</v>
       </c>
       <c r="X1716">
-        <v>1785</v>
+        <v>1343</v>
       </c>
       <c r="Y1716">
-        <v>1764</v>
+        <v>1341</v>
       </c>
       <c r="Z1716">
-        <v>1755</v>
+        <v>1638</v>
       </c>
       <c r="AA1716">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="AB1716">
-        <v>1655</v>
+        <v>1626</v>
       </c>
       <c r="AC1716">
-        <v>1832</v>
+        <v>1636</v>
       </c>
       <c r="AD1716">
-        <v>1851</v>
+        <v>1412</v>
+      </c>
+      <c r="AE1716">
+        <v>1088</v>
       </c>
     </row>
     <row r="1717" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>3577</v>
+        <v>3547</v>
       </c>
       <c r="B1717" t="s">
         <v>62</v>
@@ -94733,36 +95164,42 @@
         <v>3585</v>
       </c>
       <c r="F1717" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="J1717" t="s">
         <v>3589</v>
       </c>
       <c r="W1717">
-        <v>378</v>
+        <v>609</v>
       </c>
       <c r="X1717">
-        <v>234</v>
+        <v>782</v>
       </c>
       <c r="Y1717">
-        <v>95</v>
+        <v>885</v>
       </c>
       <c r="Z1717">
-        <v>108</v>
+        <v>960</v>
       </c>
       <c r="AA1717">
-        <v>155</v>
+        <v>877</v>
       </c>
       <c r="AB1717">
-        <v>202</v>
+        <v>939</v>
+      </c>
+      <c r="AC1717">
+        <v>1024</v>
       </c>
       <c r="AD1717">
-        <v>245</v>
+        <v>1050</v>
+      </c>
+      <c r="AE1717">
+        <v>723</v>
       </c>
     </row>
     <row r="1718" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
-        <v>3578</v>
+        <v>3548</v>
       </c>
       <c r="B1718" t="s">
         <v>62</v>
@@ -94774,39 +95211,42 @@
         <v>3585</v>
       </c>
       <c r="F1718" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="J1718" t="s">
         <v>3589</v>
       </c>
       <c r="W1718">
-        <v>739</v>
+        <v>2132</v>
       </c>
       <c r="X1718">
-        <v>894</v>
+        <v>2255</v>
       </c>
       <c r="Y1718">
-        <v>930</v>
+        <v>2183</v>
       </c>
       <c r="Z1718">
-        <v>993</v>
+        <v>2299</v>
       </c>
       <c r="AA1718">
-        <v>1000</v>
+        <v>2315</v>
       </c>
       <c r="AB1718">
-        <v>842</v>
+        <v>2382</v>
       </c>
       <c r="AC1718">
-        <v>970</v>
+        <v>2458</v>
       </c>
       <c r="AD1718">
-        <v>851</v>
+        <v>2462</v>
+      </c>
+      <c r="AE1718">
+        <v>2270</v>
       </c>
     </row>
     <row r="1719" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>3579</v>
+        <v>3549</v>
       </c>
       <c r="B1719" t="s">
         <v>62</v>
@@ -94818,24 +95258,42 @@
         <v>3585</v>
       </c>
       <c r="F1719" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="J1719" t="s">
         <v>3589</v>
       </c>
+      <c r="W1719">
+        <v>1962</v>
+      </c>
+      <c r="X1719">
+        <v>1966</v>
+      </c>
       <c r="Y1719">
-        <v>196</v>
+        <v>1972</v>
       </c>
       <c r="Z1719">
-        <v>19</v>
+        <v>2136</v>
+      </c>
+      <c r="AA1719">
+        <v>2185</v>
       </c>
       <c r="AB1719">
-        <v>1</v>
+        <v>2149</v>
+      </c>
+      <c r="AC1719">
+        <v>2209</v>
+      </c>
+      <c r="AD1719">
+        <v>2213</v>
+      </c>
+      <c r="AE1719">
+        <v>2110</v>
       </c>
     </row>
     <row r="1720" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>3580</v>
+        <v>3550</v>
       </c>
       <c r="B1720" t="s">
         <v>62</v>
@@ -94847,15 +95305,1239 @@
         <v>3585</v>
       </c>
       <c r="F1720" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="J1720" t="s">
         <v>3589</v>
       </c>
+      <c r="W1720">
+        <v>512</v>
+      </c>
+      <c r="X1720">
+        <v>647</v>
+      </c>
+      <c r="Y1720">
+        <v>789</v>
+      </c>
+      <c r="Z1720">
+        <v>824</v>
+      </c>
       <c r="AA1720">
+        <v>931</v>
+      </c>
+      <c r="AB1720">
+        <v>1025</v>
+      </c>
+      <c r="AC1720">
+        <v>1063</v>
+      </c>
+      <c r="AD1720">
+        <v>1128</v>
+      </c>
+      <c r="AE1720">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1721" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1721">
+        <v>388</v>
+      </c>
+      <c r="X1721">
+        <v>369</v>
+      </c>
+      <c r="Y1721">
+        <v>424</v>
+      </c>
+      <c r="Z1721">
+        <v>547</v>
+      </c>
+      <c r="AA1721">
+        <v>577</v>
+      </c>
+      <c r="AB1721">
+        <v>570</v>
+      </c>
+      <c r="AC1721">
+        <v>513</v>
+      </c>
+      <c r="AD1721">
+        <v>544</v>
+      </c>
+      <c r="AE1721">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1722" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1722" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1722">
+        <v>1651</v>
+      </c>
+      <c r="X1722">
+        <v>2032</v>
+      </c>
+      <c r="Y1722">
+        <v>1681</v>
+      </c>
+      <c r="Z1722">
+        <v>1810</v>
+      </c>
+      <c r="AA1722">
+        <v>1855</v>
+      </c>
+      <c r="AB1722">
+        <v>1859</v>
+      </c>
+      <c r="AC1722">
+        <v>2174</v>
+      </c>
+      <c r="AD1722">
+        <v>2015</v>
+      </c>
+      <c r="AE1722">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1723">
+        <v>1189</v>
+      </c>
+      <c r="X1723">
+        <v>1264</v>
+      </c>
+      <c r="Y1723">
+        <v>1257</v>
+      </c>
+      <c r="Z1723">
+        <v>1326</v>
+      </c>
+      <c r="AA1723">
+        <v>1557</v>
+      </c>
+      <c r="AB1723">
+        <v>1755</v>
+      </c>
+      <c r="AC1723">
+        <v>1984</v>
+      </c>
+      <c r="AD1723">
+        <v>2262</v>
+      </c>
+      <c r="AE1723">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1724">
+        <v>1720</v>
+      </c>
+      <c r="X1724">
+        <v>1490</v>
+      </c>
+      <c r="Y1724">
+        <v>1680</v>
+      </c>
+      <c r="Z1724">
+        <v>1807</v>
+      </c>
+      <c r="AA1724">
+        <v>1962</v>
+      </c>
+      <c r="AB1724">
+        <v>1881</v>
+      </c>
+      <c r="AC1724">
+        <v>1959</v>
+      </c>
+      <c r="AD1724">
+        <v>1987</v>
+      </c>
+      <c r="AE1724">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1725">
+        <v>1591</v>
+      </c>
+      <c r="X1725">
+        <v>1731</v>
+      </c>
+      <c r="Y1725">
+        <v>1642</v>
+      </c>
+      <c r="Z1725">
+        <v>1851</v>
+      </c>
+      <c r="AA1725">
+        <v>2115</v>
+      </c>
+      <c r="AB1725">
+        <v>2119</v>
+      </c>
+      <c r="AC1725">
+        <v>2244</v>
+      </c>
+      <c r="AD1725">
+        <v>2222</v>
+      </c>
+      <c r="AE1725">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1726">
+        <v>2388</v>
+      </c>
+      <c r="X1726">
+        <v>2596</v>
+      </c>
+      <c r="Y1726">
+        <v>2732</v>
+      </c>
+      <c r="Z1726">
+        <v>2812</v>
+      </c>
+      <c r="AA1726">
+        <v>2976</v>
+      </c>
+      <c r="AB1726">
+        <v>2914</v>
+      </c>
+      <c r="AC1726">
+        <v>3099</v>
+      </c>
+      <c r="AD1726">
+        <v>3240</v>
+      </c>
+      <c r="AE1726">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1727">
+        <v>2905</v>
+      </c>
+      <c r="X1727">
+        <v>2990</v>
+      </c>
+      <c r="Y1727">
+        <v>3112</v>
+      </c>
+      <c r="Z1727">
+        <v>3007</v>
+      </c>
+      <c r="AA1727">
+        <v>3041</v>
+      </c>
+      <c r="AB1727">
+        <v>2882</v>
+      </c>
+      <c r="AC1727">
+        <v>2556</v>
+      </c>
+      <c r="AD1727">
+        <v>2907</v>
+      </c>
+      <c r="AE1727">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1728">
+        <v>769</v>
+      </c>
+      <c r="X1728">
+        <v>858</v>
+      </c>
+      <c r="Y1728">
+        <v>934</v>
+      </c>
+      <c r="Z1728">
+        <v>1149</v>
+      </c>
+      <c r="AA1728">
+        <v>1420</v>
+      </c>
+      <c r="AB1728">
+        <v>1458</v>
+      </c>
+      <c r="AC1728">
+        <v>1634</v>
+      </c>
+      <c r="AD1728">
+        <v>1575</v>
+      </c>
+      <c r="AE1728">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1729">
+        <v>7148</v>
+      </c>
+      <c r="X1729">
+        <v>8363</v>
+      </c>
+      <c r="Y1729">
+        <v>8988</v>
+      </c>
+      <c r="Z1729">
+        <v>7932</v>
+      </c>
+      <c r="AA1729">
+        <v>8354</v>
+      </c>
+      <c r="AB1729">
+        <v>7183</v>
+      </c>
+      <c r="AC1729">
+        <v>8229</v>
+      </c>
+      <c r="AD1729">
+        <v>9088</v>
+      </c>
+      <c r="AE1729">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1730">
+        <v>1746</v>
+      </c>
+      <c r="X1730">
+        <v>1697</v>
+      </c>
+      <c r="Y1730">
+        <v>1747</v>
+      </c>
+      <c r="Z1730">
+        <v>1695</v>
+      </c>
+      <c r="AA1730">
+        <v>1738</v>
+      </c>
+      <c r="AB1730">
+        <v>1693</v>
+      </c>
+      <c r="AC1730">
+        <v>1697</v>
+      </c>
+      <c r="AD1730">
+        <v>1733</v>
+      </c>
+      <c r="AE1730">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1731">
+        <v>1152</v>
+      </c>
+      <c r="X1731">
+        <v>1319</v>
+      </c>
+      <c r="Y1731">
+        <v>1466</v>
+      </c>
+      <c r="Z1731">
+        <v>1496</v>
+      </c>
+      <c r="AA1731">
+        <v>1442</v>
+      </c>
+      <c r="AB1731">
+        <v>1525</v>
+      </c>
+      <c r="AC1731">
+        <v>1492</v>
+      </c>
+      <c r="AD1731">
+        <v>1495</v>
+      </c>
+      <c r="AE1731">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1732">
+        <v>2441</v>
+      </c>
+      <c r="X1732">
+        <v>2428</v>
+      </c>
+      <c r="Y1732">
+        <v>2518</v>
+      </c>
+      <c r="Z1732">
+        <v>2627</v>
+      </c>
+      <c r="AA1732">
+        <v>2559</v>
+      </c>
+      <c r="AB1732">
+        <v>2591</v>
+      </c>
+      <c r="AC1732">
+        <v>2495</v>
+      </c>
+      <c r="AD1732">
+        <v>2498</v>
+      </c>
+      <c r="AE1732">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1733">
+        <v>1136</v>
+      </c>
+      <c r="X1733">
+        <v>1204</v>
+      </c>
+      <c r="Y1733">
+        <v>1220</v>
+      </c>
+      <c r="Z1733">
+        <v>1401</v>
+      </c>
+      <c r="AA1733">
+        <v>1596</v>
+      </c>
+      <c r="AB1733">
+        <v>1537</v>
+      </c>
+      <c r="AC1733">
+        <v>1591</v>
+      </c>
+      <c r="AD1733">
+        <v>1582</v>
+      </c>
+      <c r="AE1733">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AB1734">
+        <v>1301</v>
+      </c>
+      <c r="AC1734">
+        <v>1501</v>
+      </c>
+      <c r="AD1734">
+        <v>1562</v>
+      </c>
+      <c r="AE1734">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AB1735">
+        <v>397</v>
+      </c>
+      <c r="AC1735">
+        <v>872</v>
+      </c>
+      <c r="AD1735">
+        <v>1042</v>
+      </c>
+      <c r="AE1735">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AB1736">
+        <v>65</v>
+      </c>
+      <c r="AC1736">
+        <v>89</v>
+      </c>
+      <c r="AD1736">
+        <v>98</v>
+      </c>
+      <c r="AE1736">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AC1737">
+        <v>5555</v>
+      </c>
+      <c r="AD1737">
+        <v>5651</v>
+      </c>
+      <c r="AE1737">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AC1738">
+        <v>5461</v>
+      </c>
+      <c r="AD1738">
+        <v>5083</v>
+      </c>
+      <c r="AE1738">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AC1739">
+        <v>2155</v>
+      </c>
+      <c r="AD1739">
+        <v>2108</v>
+      </c>
+      <c r="AE1739">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AD1740">
+        <v>710</v>
+      </c>
+      <c r="AE1740">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AD1741">
+        <v>1019</v>
+      </c>
+      <c r="AE1741">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>3587</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1742">
+        <v>739</v>
+      </c>
+      <c r="X1742">
+        <v>894</v>
+      </c>
+      <c r="Y1742">
+        <v>930</v>
+      </c>
+      <c r="Z1742">
+        <v>993</v>
+      </c>
+      <c r="AA1742">
+        <v>1000</v>
+      </c>
+      <c r="AB1742">
+        <v>842</v>
+      </c>
+      <c r="AC1742">
+        <v>970</v>
+      </c>
+      <c r="AD1742">
+        <v>851</v>
+      </c>
+      <c r="AE1742">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>3587</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1743">
+        <v>71542</v>
+      </c>
+      <c r="X1743">
+        <v>74988</v>
+      </c>
+      <c r="Y1743">
+        <v>76276</v>
+      </c>
+      <c r="Z1743">
+        <v>78502</v>
+      </c>
+      <c r="AA1743">
+        <v>80623</v>
+      </c>
+      <c r="AB1743">
+        <v>80714</v>
+      </c>
+      <c r="AC1743">
+        <v>98210</v>
+      </c>
+      <c r="AD1743">
+        <v>100879</v>
+      </c>
+      <c r="AE1743">
+        <v>95819</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>3587</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AA1744">
         <v>467</v>
       </c>
-      <c r="AC1720">
+      <c r="AB1744">
+        <v>1928</v>
+      </c>
+      <c r="AC1744">
+        <v>2213</v>
+      </c>
+      <c r="AD1744">
+        <v>2253</v>
+      </c>
+      <c r="AE1744">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1745">
+        <v>69559</v>
+      </c>
+      <c r="X1745">
+        <v>72969</v>
+      </c>
+      <c r="Y1745">
+        <v>74221</v>
+      </c>
+      <c r="Z1745">
+        <v>76620</v>
+      </c>
+      <c r="AA1745">
+        <v>78760</v>
+      </c>
+      <c r="AB1745">
+        <v>80784</v>
+      </c>
+      <c r="AC1745">
+        <v>96426</v>
+      </c>
+      <c r="AD1745">
+        <v>101036</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1746">
+        <v>1605</v>
+      </c>
+      <c r="X1746">
+        <v>1785</v>
+      </c>
+      <c r="Y1746">
+        <v>1764</v>
+      </c>
+      <c r="Z1746">
+        <v>1755</v>
+      </c>
+      <c r="AA1746">
+        <v>1708</v>
+      </c>
+      <c r="AB1746">
+        <v>1655</v>
+      </c>
+      <c r="AC1746">
+        <v>1832</v>
+      </c>
+      <c r="AD1746">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1747">
+        <v>378</v>
+      </c>
+      <c r="X1747">
+        <v>234</v>
+      </c>
+      <c r="Y1747">
+        <v>95</v>
+      </c>
+      <c r="Z1747">
+        <v>108</v>
+      </c>
+      <c r="AA1747">
+        <v>155</v>
+      </c>
+      <c r="AB1747">
+        <v>202</v>
+      </c>
+      <c r="AD1747">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>3589</v>
+      </c>
+      <c r="W1748">
+        <v>739</v>
+      </c>
+      <c r="X1748">
+        <v>894</v>
+      </c>
+      <c r="Y1748">
+        <v>930</v>
+      </c>
+      <c r="Z1748">
+        <v>993</v>
+      </c>
+      <c r="AA1748">
+        <v>1000</v>
+      </c>
+      <c r="AB1748">
+        <v>842</v>
+      </c>
+      <c r="AC1748">
+        <v>970</v>
+      </c>
+      <c r="AD1748">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>3589</v>
+      </c>
+      <c r="Y1749">
+        <v>196</v>
+      </c>
+      <c r="Z1749">
+        <v>19</v>
+      </c>
+      <c r="AB1749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AA1750">
+        <v>467</v>
+      </c>
+      <c r="AC1750">
         <v>2165</v>
       </c>
     </row>
